--- a/ugmarks.xlsx
+++ b/ugmarks.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="25516"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="19760" activeTab="1"/>
+    <workbookView xWindow="3160" yWindow="0" windowWidth="38400" windowHeight="19900"/>
   </bookViews>
   <sheets>
     <sheet name="mark" sheetId="4" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="weight" sheetId="1" r:id="rId3"/>
     <sheet name="statement" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="86">
   <si>
     <t>The argument is meaningful and insightful, it would be better if you could talk more about the industry dynamics.</t>
   </si>
@@ -76,9 +76,6 @@
   </si>
   <si>
     <t xml:space="preserve"> iPhone is easy to use</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> market is segemented</t>
   </si>
   <si>
     <t>Customer's brand loyalty is high</t>
@@ -256,15 +253,43 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>B072800</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>The story of iPhone is quite intriguing, the essay could be improved by being more specific on the advantage/disadvantage of iPhone</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>B029601</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> market is segemented （niche, middle, low）</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ROKR's story is quite intresting,In section 2, it would be better to discuss thoroughly iPhone's characterastics  and why they can attract target customers. </t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>B072577</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>B072711</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Very good analysis on the competitive advantage of iPhone. About App store, it is a very attractive feature of iPhone, but in 2008, the first generation of iPhone did not allow third-party software. In section 1, it would be better to address some industry-wide market characterastics. See further improvement for details.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Very good analysis on iPhone's competitive advantage/disadvantage. Note that in 2008, the first generation of iPhone did not allow third-party software, and it did not have 3G connection either. This may potentially invalidate some of your arguments.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>B036107</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>It is good that you point out the saturation of handset market, but in need of more in-depth analysis on mobile industry.</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -272,7 +297,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -432,6 +457,24 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -730,7 +773,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -855,6 +898,24 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -863,7 +924,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="48">
     <cellStyle name="20% - 强调文字颜色 1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - 强调文字颜色 2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - 强调文字颜色 3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -888,6 +949,12 @@
     <cellStyle name="标题 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="标题 4" xfId="5" builtinId="19" customBuiltin="1"/>
     <cellStyle name="差" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="超链接" xfId="42" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="44" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="46" builtinId="8" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="43" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="45" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="47" builtinId="9" hidden="1"/>
     <cellStyle name="好" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="汇总" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="计算" xfId="11" builtinId="22" customBuiltin="1"/>
@@ -1175,7 +1242,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1183,353 +1250,728 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T9" sqref="T9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:20">
       <c r="A1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K1" t="s">
+        <v>37</v>
+      </c>
+      <c r="L1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N1" t="s">
+        <v>35</v>
+      </c>
+      <c r="O1" t="s">
+        <v>34</v>
+      </c>
+      <c r="P1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R1" t="s">
+        <v>32</v>
+      </c>
+      <c r="S1" t="s">
+        <v>26</v>
+      </c>
+      <c r="T1" t="s">
         <v>31</v>
       </c>
-      <c r="C1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E1" t="s">
+    </row>
+    <row r="2" spans="1:20">
+      <c r="A2" t="str">
+        <f>comment!A2</f>
+        <v>B037938</v>
+      </c>
+      <c r="B2" t="s">
         <v>30</v>
       </c>
-      <c r="F1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H1" t="s">
-        <v>41</v>
-      </c>
-      <c r="I1" t="s">
-        <v>40</v>
-      </c>
-      <c r="J1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K1" t="s">
-        <v>38</v>
-      </c>
-      <c r="L1" t="s">
-        <v>37</v>
-      </c>
-      <c r="M1" t="s">
+      <c r="C2">
+        <v>5</v>
+      </c>
+      <c r="D2">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
         <v>29</v>
       </c>
-      <c r="N1" t="s">
-        <v>36</v>
-      </c>
-      <c r="O1" t="s">
-        <v>35</v>
-      </c>
-      <c r="P1" t="s">
+      <c r="F2">
+        <v>4</v>
+      </c>
+      <c r="G2">
+        <v>4</v>
+      </c>
+      <c r="H2">
+        <v>5</v>
+      </c>
+      <c r="I2">
+        <v>4</v>
+      </c>
+      <c r="J2">
+        <v>3</v>
+      </c>
+      <c r="K2">
+        <v>5</v>
+      </c>
+      <c r="L2">
+        <v>4</v>
+      </c>
+      <c r="M2" t="s">
         <v>28</v>
       </c>
-      <c r="Q1" t="s">
-        <v>34</v>
-      </c>
-      <c r="R1" t="s">
-        <v>33</v>
-      </c>
-      <c r="S1" t="s">
+      <c r="N2">
+        <v>4</v>
+      </c>
+      <c r="O2">
+        <v>4</v>
+      </c>
+      <c r="P2" t="s">
         <v>27</v>
       </c>
-      <c r="T1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2">
-        <v>5</v>
-      </c>
-      <c r="D2">
-        <v>4</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="Q2">
+        <v>5</v>
+      </c>
+      <c r="R2">
+        <v>4</v>
+      </c>
+      <c r="S2" t="s">
+        <v>26</v>
+      </c>
+      <c r="T2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
+      <c r="A3" t="str">
+        <f>comment!A3</f>
+        <v>B063263</v>
+      </c>
+      <c r="B3" t="s">
         <v>30</v>
       </c>
-      <c r="F2">
-        <v>4</v>
-      </c>
-      <c r="G2">
-        <v>4</v>
-      </c>
-      <c r="H2">
-        <v>5</v>
-      </c>
-      <c r="I2">
-        <v>4</v>
-      </c>
-      <c r="J2">
-        <v>3</v>
-      </c>
-      <c r="K2">
-        <v>5</v>
-      </c>
-      <c r="L2">
-        <v>4</v>
-      </c>
-      <c r="M2" t="s">
+      <c r="C3">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
         <v>29</v>
       </c>
-      <c r="N2">
-        <v>4</v>
-      </c>
-      <c r="O2">
-        <v>4</v>
-      </c>
-      <c r="P2" t="s">
+      <c r="F3">
+        <v>4</v>
+      </c>
+      <c r="G3">
+        <v>4</v>
+      </c>
+      <c r="H3">
+        <v>4</v>
+      </c>
+      <c r="I3">
+        <v>4</v>
+      </c>
+      <c r="J3">
+        <v>3</v>
+      </c>
+      <c r="K3">
+        <v>5</v>
+      </c>
+      <c r="L3">
+        <v>4</v>
+      </c>
+      <c r="M3" t="s">
         <v>28</v>
       </c>
-      <c r="Q2">
-        <v>5</v>
-      </c>
-      <c r="R2">
-        <v>4</v>
-      </c>
-      <c r="S2" t="s">
+      <c r="N3">
+        <v>4</v>
+      </c>
+      <c r="O3">
+        <v>4</v>
+      </c>
+      <c r="P3" t="s">
         <v>27</v>
       </c>
-      <c r="T2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3">
-        <v>4</v>
-      </c>
-      <c r="D3">
-        <v>3</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="Q3">
+        <v>5</v>
+      </c>
+      <c r="R3">
+        <v>4</v>
+      </c>
+      <c r="S3" t="s">
+        <v>26</v>
+      </c>
+      <c r="T3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" t="str">
+        <f>comment!A4</f>
+        <v>B072800</v>
+      </c>
+      <c r="B4" t="s">
         <v>30</v>
       </c>
-      <c r="F3">
-        <v>4</v>
-      </c>
-      <c r="G3">
-        <v>4</v>
-      </c>
-      <c r="H3">
-        <v>4</v>
-      </c>
-      <c r="I3">
-        <v>4</v>
-      </c>
-      <c r="J3">
-        <v>3</v>
-      </c>
-      <c r="K3">
-        <v>5</v>
-      </c>
-      <c r="L3">
-        <v>4</v>
-      </c>
-      <c r="M3" t="s">
+      <c r="C4">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
         <v>29</v>
       </c>
-      <c r="N3">
-        <v>4</v>
-      </c>
-      <c r="O3">
-        <v>4</v>
-      </c>
-      <c r="P3" t="s">
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="G4">
+        <v>3</v>
+      </c>
+      <c r="H4">
+        <v>4</v>
+      </c>
+      <c r="I4">
+        <v>3</v>
+      </c>
+      <c r="J4">
+        <v>3</v>
+      </c>
+      <c r="K4">
+        <v>4</v>
+      </c>
+      <c r="L4">
+        <v>4</v>
+      </c>
+      <c r="M4" t="s">
         <v>28</v>
       </c>
-      <c r="Q3">
-        <v>5</v>
-      </c>
-      <c r="R3">
-        <v>4</v>
-      </c>
-      <c r="S3" t="s">
+      <c r="N4">
+        <v>4</v>
+      </c>
+      <c r="O4">
+        <v>3</v>
+      </c>
+      <c r="P4" t="s">
         <v>27</v>
       </c>
-      <c r="T3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20">
-      <c r="A4" t="s">
-        <v>76</v>
-      </c>
-      <c r="B4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4">
-        <v>5</v>
-      </c>
-      <c r="D4">
-        <v>3</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="Q4">
+        <v>5</v>
+      </c>
+      <c r="R4">
+        <v>4</v>
+      </c>
+      <c r="S4" t="s">
+        <v>26</v>
+      </c>
+      <c r="T4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="str">
+        <f>comment!A5</f>
+        <v>B029601</v>
+      </c>
+      <c r="B5" t="s">
         <v>30</v>
       </c>
-      <c r="F4">
-        <v>3</v>
-      </c>
-      <c r="G4">
-        <v>3</v>
-      </c>
-      <c r="H4">
-        <v>4</v>
-      </c>
-      <c r="I4">
-        <v>3</v>
-      </c>
-      <c r="J4">
-        <v>3</v>
-      </c>
-      <c r="K4">
-        <v>4</v>
-      </c>
-      <c r="L4">
-        <v>4</v>
-      </c>
-      <c r="M4" t="s">
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
         <v>29</v>
       </c>
-      <c r="N4">
-        <v>4</v>
-      </c>
-      <c r="O4">
-        <v>3</v>
-      </c>
-      <c r="P4" t="s">
+      <c r="F5">
+        <v>4</v>
+      </c>
+      <c r="G5">
+        <v>4</v>
+      </c>
+      <c r="H5">
+        <v>3</v>
+      </c>
+      <c r="I5">
+        <v>3</v>
+      </c>
+      <c r="J5">
+        <v>5</v>
+      </c>
+      <c r="K5">
+        <v>4</v>
+      </c>
+      <c r="L5">
+        <v>3</v>
+      </c>
+      <c r="M5" t="s">
         <v>28</v>
       </c>
-      <c r="Q4">
-        <v>5</v>
-      </c>
-      <c r="R4">
-        <v>4</v>
-      </c>
-      <c r="S4" t="s">
+      <c r="N5">
+        <v>4</v>
+      </c>
+      <c r="O5">
+        <v>3</v>
+      </c>
+      <c r="P5" t="s">
         <v>27</v>
       </c>
-      <c r="T4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" t="s">
-        <v>79</v>
-      </c>
-      <c r="B5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="Q5">
+        <v>4</v>
+      </c>
+      <c r="R5">
+        <v>4</v>
+      </c>
+      <c r="S5" t="s">
+        <v>26</v>
+      </c>
+      <c r="T5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="str">
+        <f>comment!A6</f>
+        <v>B072577</v>
+      </c>
+      <c r="B6" t="s">
         <v>30</v>
       </c>
-      <c r="M5" t="s">
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6" t="s">
         <v>29</v>
       </c>
-      <c r="P5" t="s">
+      <c r="F6">
+        <v>4</v>
+      </c>
+      <c r="G6">
+        <v>4</v>
+      </c>
+      <c r="H6">
+        <v>4</v>
+      </c>
+      <c r="I6">
+        <v>4</v>
+      </c>
+      <c r="J6">
+        <v>5</v>
+      </c>
+      <c r="K6">
+        <v>4</v>
+      </c>
+      <c r="L6">
+        <v>4</v>
+      </c>
+      <c r="M6" t="s">
         <v>28</v>
       </c>
-      <c r="S5" t="s">
+      <c r="N6">
+        <v>4</v>
+      </c>
+      <c r="O6">
+        <v>4</v>
+      </c>
+      <c r="P6" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="B6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="Q6">
+        <v>5</v>
+      </c>
+      <c r="R6">
+        <v>4</v>
+      </c>
+      <c r="S6" t="s">
+        <v>26</v>
+      </c>
+      <c r="T6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="str">
+        <f>comment!A7</f>
+        <v>B072711</v>
+      </c>
+      <c r="B7" t="s">
         <v>30</v>
       </c>
-      <c r="M6" t="s">
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="D7">
+        <v>4</v>
+      </c>
+      <c r="E7" t="s">
         <v>29</v>
       </c>
-      <c r="P6" t="s">
+      <c r="F7">
+        <v>4</v>
+      </c>
+      <c r="G7">
+        <v>4</v>
+      </c>
+      <c r="H7">
+        <v>4</v>
+      </c>
+      <c r="I7">
+        <v>4</v>
+      </c>
+      <c r="J7">
+        <v>5</v>
+      </c>
+      <c r="K7">
+        <v>5</v>
+      </c>
+      <c r="L7">
+        <v>4</v>
+      </c>
+      <c r="M7" t="s">
         <v>28</v>
       </c>
-      <c r="S6" t="s">
+      <c r="N7">
+        <v>4</v>
+      </c>
+      <c r="O7">
+        <v>4</v>
+      </c>
+      <c r="P7" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="B7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="Q7">
+        <v>4</v>
+      </c>
+      <c r="R7">
+        <v>4</v>
+      </c>
+      <c r="S7" t="s">
+        <v>26</v>
+      </c>
+      <c r="T7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="str">
+        <f>comment!A8</f>
+        <v>B036107</v>
+      </c>
+      <c r="B8" t="s">
         <v>30</v>
       </c>
-      <c r="M7" t="s">
+      <c r="C8">
+        <v>4</v>
+      </c>
+      <c r="D8">
+        <v>4</v>
+      </c>
+      <c r="E8" t="s">
         <v>29</v>
       </c>
-      <c r="P7" t="s">
+      <c r="F8">
+        <v>3</v>
+      </c>
+      <c r="G8">
+        <v>4</v>
+      </c>
+      <c r="H8">
+        <v>3</v>
+      </c>
+      <c r="I8">
+        <v>3</v>
+      </c>
+      <c r="J8">
+        <v>3</v>
+      </c>
+      <c r="K8">
+        <v>4</v>
+      </c>
+      <c r="L8">
+        <v>3</v>
+      </c>
+      <c r="M8" t="s">
         <v>28</v>
       </c>
-      <c r="S7" t="s">
+      <c r="N8">
+        <v>4</v>
+      </c>
+      <c r="O8">
+        <v>4</v>
+      </c>
+      <c r="P8" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="B8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="Q8">
+        <v>5</v>
+      </c>
+      <c r="R8">
+        <v>2</v>
+      </c>
+      <c r="S8" t="s">
+        <v>26</v>
+      </c>
+      <c r="T8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9">
+        <f>comment!A9</f>
+        <v>0</v>
+      </c>
+      <c r="B9" t="s">
         <v>30</v>
       </c>
-      <c r="M8" t="s">
+      <c r="E9" t="s">
         <v>29</v>
       </c>
-      <c r="P8" t="s">
+      <c r="M9" t="s">
         <v>28</v>
       </c>
-      <c r="S8" t="s">
+      <c r="P9" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="B9" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" t="s">
-        <v>30</v>
-      </c>
-      <c r="M9" t="s">
-        <v>29</v>
-      </c>
-      <c r="P9" t="s">
-        <v>28</v>
-      </c>
       <c r="S9" t="s">
-        <v>27</v>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10">
+        <f>comment!A10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11">
+        <f>comment!A11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12">
+        <f>comment!A12</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13">
+        <f>comment!A13</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14">
+        <f>comment!A14</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15">
+        <f>comment!A15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16">
+        <f>comment!A16</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17">
+        <f>comment!A17</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18">
+        <f>comment!A18</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19">
+        <f>comment!A19</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20">
+        <f>comment!A20</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21">
+        <f>comment!A21</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22">
+        <f>comment!A22</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23">
+        <f>comment!A23</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24">
+        <f>comment!A24</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25">
+        <f>comment!A25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26">
+        <f>comment!A26</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27">
+        <f>comment!A27</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28">
+        <f>comment!A28</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29">
+        <f>comment!A29</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30">
+        <f>comment!A30</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31">
+        <f>comment!A31</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32">
+        <f>comment!A32</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33">
+        <f>comment!A33</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34">
+        <f>comment!A34</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35">
+        <f>comment!A35</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36">
+        <f>comment!A36</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37">
+        <f>comment!A37</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38">
+        <f>comment!A38</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39">
+        <f>comment!A39</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40">
+        <f>comment!A40</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1540,41 +1982,41 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W4"/>
+  <dimension ref="A1:W8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:23">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I1" t="s">
-        <v>18</v>
+        <v>78</v>
       </c>
       <c r="J1" t="s">
         <v>17</v>
@@ -1763,13 +2205,13 @@
     </row>
     <row r="4" spans="1:23">
       <c r="A4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B4">
         <v>4</v>
       </c>
       <c r="C4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4">
         <v>5</v>
@@ -1829,12 +2271,297 @@
         <v>1</v>
       </c>
       <c r="W4" t="s">
-        <v>78</v>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
+      <c r="A5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5">
+        <v>3</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>3</v>
+      </c>
+      <c r="J5">
+        <v>3</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>4</v>
+      </c>
+      <c r="M5">
+        <v>2</v>
+      </c>
+      <c r="N5">
+        <v>4</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>5</v>
+      </c>
+      <c r="Q5">
+        <v>1</v>
+      </c>
+      <c r="R5">
+        <v>1</v>
+      </c>
+      <c r="S5">
+        <v>1</v>
+      </c>
+      <c r="T5">
+        <v>1</v>
+      </c>
+      <c r="U5">
+        <v>1</v>
+      </c>
+      <c r="V5">
+        <v>1</v>
+      </c>
+      <c r="W5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
+      <c r="A6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>4</v>
+      </c>
+      <c r="J6">
+        <v>4</v>
+      </c>
+      <c r="K6">
+        <v>5</v>
+      </c>
+      <c r="L6">
+        <v>5</v>
+      </c>
+      <c r="M6">
+        <v>3</v>
+      </c>
+      <c r="N6">
+        <v>2</v>
+      </c>
+      <c r="O6">
+        <v>5</v>
+      </c>
+      <c r="P6">
+        <v>5</v>
+      </c>
+      <c r="Q6">
+        <v>3</v>
+      </c>
+      <c r="R6">
+        <v>5</v>
+      </c>
+      <c r="S6">
+        <v>1</v>
+      </c>
+      <c r="T6">
+        <v>1</v>
+      </c>
+      <c r="U6">
+        <v>1</v>
+      </c>
+      <c r="V6">
+        <v>1</v>
+      </c>
+      <c r="W6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
+      <c r="A7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>5</v>
+      </c>
+      <c r="H7">
+        <v>5</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>2</v>
+      </c>
+      <c r="K7">
+        <v>5</v>
+      </c>
+      <c r="L7">
+        <v>5</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>5</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>3</v>
+      </c>
+      <c r="Q7">
+        <v>3</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>3</v>
+      </c>
+      <c r="T7">
+        <v>3</v>
+      </c>
+      <c r="U7">
+        <v>1</v>
+      </c>
+      <c r="V7">
+        <v>1</v>
+      </c>
+      <c r="W7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
+      <c r="A8" t="s">
+        <v>84</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>5</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+      <c r="H8">
+        <v>2</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>2</v>
+      </c>
+      <c r="M8">
+        <v>4</v>
+      </c>
+      <c r="N8">
+        <v>5</v>
+      </c>
+      <c r="O8">
+        <v>1</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>2</v>
+      </c>
+      <c r="R8">
+        <v>1</v>
+      </c>
+      <c r="S8">
+        <v>1</v>
+      </c>
+      <c r="T8">
+        <v>1</v>
+      </c>
+      <c r="U8">
+        <v>1</v>
+      </c>
+      <c r="V8">
+        <v>1</v>
+      </c>
+      <c r="W8" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1847,7 +2574,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
@@ -1983,154 +2712,154 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/ugmarks.xlsx
+++ b/ugmarks.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="25516"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3160" yWindow="0" windowWidth="38400" windowHeight="19900"/>
+    <workbookView xWindow="41000" yWindow="0" windowWidth="38420" windowHeight="19560" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="mark" sheetId="4" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="143">
   <si>
     <t>The argument is meaningful and insightful, it would be better if you could talk more about the industry dynamics.</t>
   </si>
@@ -261,10 +261,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> market is segemented （niche, middle, low）</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">ROKR's story is quite intresting,In section 2, it would be better to discuss thoroughly iPhone's characterastics  and why they can attract target customers. </t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -290,6 +286,238 @@
   </si>
   <si>
     <t>It is good that you point out the saturation of handset market, but in need of more in-depth analysis on mobile industry.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>B038524</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>The industry analysis part is fairly good, in part 2, it would be better to further discuss why some specific features of iPhone lead to competitive advantage/disadvantage</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>B072717</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>B072717</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>The industry analysis and competitive analysis parts are fairly good, it would be better to have more empirical evidence to support your arguments.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>B032202</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>In general, an excellent essay. I am not quite understand diagram 2, in which you try to use a game-theoretical framework to explain Apple and Nokia's move, you might want to spend more words on it. Except this diagram, other arguments are clear and meaningful.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>B023020</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>The Five-force analysis is quite meaningful, in-depth analysis on mobile industry. Should talk more about Apple's disadvantage and why Nokia does not adopt apple's revenue sharing scheme.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>B072809</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Very good industry analysis (part 1), in need of being more specific about iPhone's disadvantages</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>B038508</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Very good industry analysis (part 1),it would be better if you could talk more about Nokia's strategy of market positioning, etc.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>B064282</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Part 1 and part 2 are fairly good, in part 3, you can relate the contract form with Nokia's strategy of market positioning.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>B072263</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Part 2 is the best part, it listes most of the competitive advantages/disadvantages. Also, this essay could be improved by  using headings and sections.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>B027563</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">In Part 2, the advantages are farily comprehensive, in need of more disadvantages. In part 3, it would be better to talk more about Nokia's market positioning. </t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>B024112</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>B072399</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>B072373</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>B038146</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>The story of Steven Job is interesting. Part 1 is supposed to be a more broad picture of mobile industry, part 2 is fairly good, part 3 should include Nokia's market positioning strategies.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>The Third part is better than the rest.It would be better to talk more about mobile industry (maybe a five-force analysis?)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Five-force analysis does reveal a lot of information. It would be better to talk more on the interaction between mobile operators.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>A good essay, it could be improved by adding more empirical evidence and in-depth analysis about the difference between Nokia and Apple</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>B039098</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> market is segemented （high, middle, low）</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>In need of more empirical evidence and in-depth analysis to support your argument. For example, you might want to talk a bit about Nokia's marketing strategy and then discuss why Nokia did not adopt revenue-sharing contract, you could also discuss from the perspective of the strategic relationship between Nokia and mobile operators</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>B072730</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>B007635</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>It is a very good point that lack of 3G connection is one of the disadvantages of 1st iPhone. In Part B, do you really think that "it was the first cell phone with touch screen"? Before iPhone, there are already many cellphones with touchscreen (e.g. Moto ROKR E6)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>It is a very good point that lack of 3G connection is one of the disadvantages of 1st iPhone. But pay attention that 1st gen iPhone did not have app store</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>B066292</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>It is a very good poing that Apple's effective control of supply chain is one of the advantages of iPhone. In need of more detailed discussion about the difference between Nokia and Apple.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>B072765</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>B005028</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">It is a very good point that lack of 3G connection is one of the disadvantages of 1st iPhone. The arguments would be more convincing if you talked more about Nokia's market strategy, not only from Apple's side. </t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Great discussion on the exclusivity. The essay would be more complete if you discuss more about Nokia's marketing strategy as well.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>B024590</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>B034365</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Mobile market description is very good, but in part 3, maybe you can consider something about Nokia's marketing strategy? </t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Good analysis on the industy and iphone itself, maybe you want to talk more about Nokia?</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>B024091</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>B035029</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>B037812</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>B028670</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>B072799</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>B072582</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>B072761</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Good analysis on Nokia's position. The advantage/disadvantage of iPhone needs to be more specific</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>The analysis is excellent, it would be perfect if more empirical evidence and data</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">The 3rd part's argument are quite convincing, it would really improve a lot if you could discuss the specific features of iPhone in the 2nd part </t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Great table illustration. In need of detail industry analysis on these tables. </t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>The answer of part 3 is fairly comprehensive, part 1 could be improved by discussing some important characterastics of mobile market (e.g. market segementation, etc.)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>In part3, I am happy that you mentioned the classroom marketing experiment. It would be even better if you could discuss Nokia's marketing strategy.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>The analysis on the difference between Apple and Nokia is really nice, with headings and sections, the essay could be more structured.</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1242,7 +1470,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1250,10 +1478,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T40"/>
+  <dimension ref="A1:T36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T9" sqref="T9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1362,7 +1590,7 @@
         <v>28</v>
       </c>
       <c r="N2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O2">
         <v>4</v>
@@ -1425,7 +1653,7 @@
         <v>28</v>
       </c>
       <c r="N3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O3">
         <v>4</v>
@@ -1762,210 +1990,1766 @@
       </c>
     </row>
     <row r="9" spans="1:20">
-      <c r="A9">
+      <c r="A9" t="str">
         <f>comment!A9</f>
-        <v>0</v>
+        <v>B038524</v>
       </c>
       <c r="B9" t="s">
         <v>30</v>
       </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9">
+        <v>4</v>
+      </c>
       <c r="E9" t="s">
         <v>29</v>
       </c>
+      <c r="F9">
+        <v>4</v>
+      </c>
+      <c r="G9">
+        <v>4</v>
+      </c>
+      <c r="H9">
+        <v>4</v>
+      </c>
+      <c r="I9">
+        <v>3</v>
+      </c>
+      <c r="J9">
+        <v>3</v>
+      </c>
+      <c r="K9">
+        <v>4</v>
+      </c>
+      <c r="L9">
+        <v>4</v>
+      </c>
       <c r="M9" t="s">
         <v>28</v>
       </c>
+      <c r="N9">
+        <v>4</v>
+      </c>
+      <c r="O9">
+        <v>4</v>
+      </c>
       <c r="P9" t="s">
         <v>27</v>
       </c>
+      <c r="Q9">
+        <v>4</v>
+      </c>
+      <c r="R9">
+        <v>3</v>
+      </c>
       <c r="S9" t="s">
         <v>26</v>
       </c>
+      <c r="T9">
+        <v>3</v>
+      </c>
     </row>
     <row r="10" spans="1:20">
-      <c r="A10">
-        <f>comment!A10</f>
-        <v>0</v>
+      <c r="A10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10">
+        <v>5</v>
+      </c>
+      <c r="D10">
+        <v>4</v>
+      </c>
+      <c r="E10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10">
+        <v>4</v>
+      </c>
+      <c r="G10">
+        <v>4</v>
+      </c>
+      <c r="H10">
+        <v>4</v>
+      </c>
+      <c r="I10">
+        <v>4</v>
+      </c>
+      <c r="J10">
+        <v>2</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>4</v>
+      </c>
+      <c r="M10" t="s">
+        <v>28</v>
+      </c>
+      <c r="N10">
+        <v>4</v>
+      </c>
+      <c r="O10">
+        <v>4</v>
+      </c>
+      <c r="P10" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q10">
+        <v>5</v>
+      </c>
+      <c r="R10">
+        <v>4</v>
+      </c>
+      <c r="S10" t="s">
+        <v>26</v>
+      </c>
+      <c r="T10">
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:20">
-      <c r="A11">
+      <c r="A11" t="str">
         <f>comment!A11</f>
-        <v>0</v>
+        <v>B032202</v>
+      </c>
+      <c r="B11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11">
+        <v>5</v>
+      </c>
+      <c r="D11">
+        <v>4</v>
+      </c>
+      <c r="E11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11">
+        <v>5</v>
+      </c>
+      <c r="G11">
+        <v>5</v>
+      </c>
+      <c r="H11">
+        <v>5</v>
+      </c>
+      <c r="I11">
+        <v>5</v>
+      </c>
+      <c r="J11">
+        <v>5</v>
+      </c>
+      <c r="K11">
+        <v>5</v>
+      </c>
+      <c r="L11">
+        <v>5</v>
+      </c>
+      <c r="M11" t="s">
+        <v>28</v>
+      </c>
+      <c r="N11">
+        <v>5</v>
+      </c>
+      <c r="O11">
+        <v>5</v>
+      </c>
+      <c r="P11" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q11">
+        <v>5</v>
+      </c>
+      <c r="R11">
+        <v>4</v>
+      </c>
+      <c r="S11" t="s">
+        <v>26</v>
+      </c>
+      <c r="T11">
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:20">
-      <c r="A12">
+      <c r="A12" t="str">
         <f>comment!A12</f>
-        <v>0</v>
+        <v>B023020</v>
+      </c>
+      <c r="B12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12">
+        <v>4</v>
+      </c>
+      <c r="D12">
+        <v>4</v>
+      </c>
+      <c r="E12" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12">
+        <v>3</v>
+      </c>
+      <c r="G12">
+        <v>4</v>
+      </c>
+      <c r="H12">
+        <v>4</v>
+      </c>
+      <c r="I12">
+        <v>5</v>
+      </c>
+      <c r="J12">
+        <v>3</v>
+      </c>
+      <c r="K12">
+        <v>4</v>
+      </c>
+      <c r="L12">
+        <v>4</v>
+      </c>
+      <c r="M12" t="s">
+        <v>28</v>
+      </c>
+      <c r="N12">
+        <v>4</v>
+      </c>
+      <c r="O12">
+        <v>4</v>
+      </c>
+      <c r="P12" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q12">
+        <v>5</v>
+      </c>
+      <c r="R12">
+        <v>4</v>
+      </c>
+      <c r="S12" t="s">
+        <v>26</v>
+      </c>
+      <c r="T12">
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:20">
-      <c r="A13">
+      <c r="A13" t="str">
         <f>comment!A13</f>
-        <v>0</v>
+        <v>B072809</v>
+      </c>
+      <c r="B13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13">
+        <v>4</v>
+      </c>
+      <c r="D13">
+        <v>4</v>
+      </c>
+      <c r="E13" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13">
+        <v>4</v>
+      </c>
+      <c r="G13">
+        <v>3</v>
+      </c>
+      <c r="H13">
+        <v>4</v>
+      </c>
+      <c r="I13">
+        <v>4</v>
+      </c>
+      <c r="J13">
+        <v>3</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>4</v>
+      </c>
+      <c r="M13" t="s">
+        <v>28</v>
+      </c>
+      <c r="N13">
+        <v>3</v>
+      </c>
+      <c r="O13">
+        <v>4</v>
+      </c>
+      <c r="P13" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q13">
+        <v>4</v>
+      </c>
+      <c r="R13">
+        <v>4</v>
+      </c>
+      <c r="S13" t="s">
+        <v>26</v>
+      </c>
+      <c r="T13">
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:20">
-      <c r="A14">
+      <c r="A14" t="str">
         <f>comment!A14</f>
-        <v>0</v>
+        <v>B038508</v>
+      </c>
+      <c r="B14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14">
+        <v>5</v>
+      </c>
+      <c r="D14">
+        <v>3</v>
+      </c>
+      <c r="E14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F14">
+        <v>4</v>
+      </c>
+      <c r="G14">
+        <v>4</v>
+      </c>
+      <c r="H14">
+        <v>4</v>
+      </c>
+      <c r="I14">
+        <v>4</v>
+      </c>
+      <c r="J14">
+        <v>3</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>4</v>
+      </c>
+      <c r="M14" t="s">
+        <v>28</v>
+      </c>
+      <c r="N14">
+        <v>4</v>
+      </c>
+      <c r="O14">
+        <v>4</v>
+      </c>
+      <c r="P14" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q14">
+        <v>4</v>
+      </c>
+      <c r="R14">
+        <v>3</v>
+      </c>
+      <c r="S14" t="s">
+        <v>26</v>
+      </c>
+      <c r="T14">
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:20">
-      <c r="A15">
+      <c r="A15" t="str">
         <f>comment!A15</f>
-        <v>0</v>
+        <v>B064282</v>
+      </c>
+      <c r="B15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15">
+        <v>5</v>
+      </c>
+      <c r="D15">
+        <v>4</v>
+      </c>
+      <c r="E15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15">
+        <v>4</v>
+      </c>
+      <c r="G15">
+        <v>4</v>
+      </c>
+      <c r="H15">
+        <v>4</v>
+      </c>
+      <c r="I15">
+        <v>4</v>
+      </c>
+      <c r="J15">
+        <v>4</v>
+      </c>
+      <c r="K15">
+        <v>4</v>
+      </c>
+      <c r="L15">
+        <v>5</v>
+      </c>
+      <c r="M15" t="s">
+        <v>28</v>
+      </c>
+      <c r="N15">
+        <v>4</v>
+      </c>
+      <c r="O15">
+        <v>4</v>
+      </c>
+      <c r="P15" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q15">
+        <v>5</v>
+      </c>
+      <c r="R15">
+        <v>3</v>
+      </c>
+      <c r="S15" t="s">
+        <v>26</v>
+      </c>
+      <c r="T15">
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:20">
-      <c r="A16">
+      <c r="A16" t="str">
         <f>comment!A16</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17">
+        <v>B072263</v>
+      </c>
+      <c r="B16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16">
+        <v>5</v>
+      </c>
+      <c r="D16">
+        <v>4</v>
+      </c>
+      <c r="E16" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16">
+        <v>3</v>
+      </c>
+      <c r="G16">
+        <v>4</v>
+      </c>
+      <c r="H16">
+        <v>4</v>
+      </c>
+      <c r="I16">
+        <v>4</v>
+      </c>
+      <c r="J16">
+        <v>3</v>
+      </c>
+      <c r="K16">
+        <v>4</v>
+      </c>
+      <c r="L16">
+        <v>4</v>
+      </c>
+      <c r="M16" t="s">
+        <v>28</v>
+      </c>
+      <c r="N16">
+        <v>4</v>
+      </c>
+      <c r="O16">
+        <v>3</v>
+      </c>
+      <c r="P16" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q16">
+        <v>4</v>
+      </c>
+      <c r="R16">
+        <v>3</v>
+      </c>
+      <c r="S16" t="s">
+        <v>26</v>
+      </c>
+      <c r="T16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="str">
         <f>comment!A17</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18">
+        <v>B027563</v>
+      </c>
+      <c r="B17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17">
+        <v>4</v>
+      </c>
+      <c r="D17">
+        <v>3</v>
+      </c>
+      <c r="E17" t="s">
+        <v>29</v>
+      </c>
+      <c r="F17">
+        <v>3</v>
+      </c>
+      <c r="G17">
+        <v>4</v>
+      </c>
+      <c r="H17">
+        <v>4</v>
+      </c>
+      <c r="I17">
+        <v>3</v>
+      </c>
+      <c r="J17">
+        <v>4</v>
+      </c>
+      <c r="K17">
+        <v>4</v>
+      </c>
+      <c r="L17">
+        <v>3</v>
+      </c>
+      <c r="M17" t="s">
+        <v>28</v>
+      </c>
+      <c r="N17">
+        <v>4</v>
+      </c>
+      <c r="O17">
+        <v>3</v>
+      </c>
+      <c r="P17" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q17">
+        <v>5</v>
+      </c>
+      <c r="R17">
+        <v>2</v>
+      </c>
+      <c r="S17" t="s">
+        <v>26</v>
+      </c>
+      <c r="T17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="str">
         <f>comment!A18</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19">
+        <v>B024112</v>
+      </c>
+      <c r="B18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18">
+        <v>4</v>
+      </c>
+      <c r="D18">
+        <v>3</v>
+      </c>
+      <c r="E18" t="s">
+        <v>29</v>
+      </c>
+      <c r="F18">
+        <v>4</v>
+      </c>
+      <c r="G18">
+        <v>3</v>
+      </c>
+      <c r="H18">
+        <v>4</v>
+      </c>
+      <c r="I18">
+        <v>3</v>
+      </c>
+      <c r="J18">
+        <v>3</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>4</v>
+      </c>
+      <c r="M18" t="s">
+        <v>28</v>
+      </c>
+      <c r="N18">
+        <v>4</v>
+      </c>
+      <c r="O18">
+        <v>4</v>
+      </c>
+      <c r="P18" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q18">
+        <v>4</v>
+      </c>
+      <c r="R18">
+        <v>4</v>
+      </c>
+      <c r="S18" t="s">
+        <v>26</v>
+      </c>
+      <c r="T18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="str">
         <f>comment!A19</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20">
+        <v>B072373</v>
+      </c>
+      <c r="B19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19">
+        <v>5</v>
+      </c>
+      <c r="D19">
+        <v>4</v>
+      </c>
+      <c r="E19" t="s">
+        <v>29</v>
+      </c>
+      <c r="F19">
+        <v>4</v>
+      </c>
+      <c r="G19">
+        <v>4</v>
+      </c>
+      <c r="H19">
+        <v>4</v>
+      </c>
+      <c r="I19">
+        <v>4</v>
+      </c>
+      <c r="J19">
+        <v>3</v>
+      </c>
+      <c r="K19">
+        <v>4</v>
+      </c>
+      <c r="L19">
+        <v>4</v>
+      </c>
+      <c r="M19" t="s">
+        <v>28</v>
+      </c>
+      <c r="N19">
+        <v>4</v>
+      </c>
+      <c r="O19">
+        <v>4</v>
+      </c>
+      <c r="P19" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q19">
+        <v>4</v>
+      </c>
+      <c r="R19">
+        <v>4</v>
+      </c>
+      <c r="S19" t="s">
+        <v>26</v>
+      </c>
+      <c r="T19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="str">
         <f>comment!A20</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21">
+        <v>B072399</v>
+      </c>
+      <c r="B20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20">
+        <v>5</v>
+      </c>
+      <c r="D20">
+        <v>4</v>
+      </c>
+      <c r="E20" t="s">
+        <v>29</v>
+      </c>
+      <c r="F20">
+        <v>4</v>
+      </c>
+      <c r="G20">
+        <v>4</v>
+      </c>
+      <c r="H20">
+        <v>4</v>
+      </c>
+      <c r="I20">
+        <v>3</v>
+      </c>
+      <c r="J20">
+        <v>4</v>
+      </c>
+      <c r="K20">
+        <v>4</v>
+      </c>
+      <c r="L20">
+        <v>4</v>
+      </c>
+      <c r="M20" t="s">
+        <v>28</v>
+      </c>
+      <c r="N20">
+        <v>4</v>
+      </c>
+      <c r="O20">
+        <v>4</v>
+      </c>
+      <c r="P20" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q20">
+        <v>4</v>
+      </c>
+      <c r="R20">
+        <v>3</v>
+      </c>
+      <c r="S20" t="s">
+        <v>26</v>
+      </c>
+      <c r="T20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="str">
         <f>comment!A21</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22">
+        <v>B038146</v>
+      </c>
+      <c r="B21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21">
+        <v>4</v>
+      </c>
+      <c r="D21">
+        <v>3</v>
+      </c>
+      <c r="E21" t="s">
+        <v>29</v>
+      </c>
+      <c r="F21">
+        <v>4</v>
+      </c>
+      <c r="G21">
+        <v>3</v>
+      </c>
+      <c r="H21">
+        <v>5</v>
+      </c>
+      <c r="I21">
+        <v>4</v>
+      </c>
+      <c r="J21">
+        <v>4</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>4</v>
+      </c>
+      <c r="M21" t="s">
+        <v>28</v>
+      </c>
+      <c r="N21">
+        <v>4</v>
+      </c>
+      <c r="O21">
+        <v>4</v>
+      </c>
+      <c r="P21" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q21">
+        <v>4</v>
+      </c>
+      <c r="R21">
+        <v>4</v>
+      </c>
+      <c r="S21" t="s">
+        <v>26</v>
+      </c>
+      <c r="T21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="str">
         <f>comment!A22</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23">
+        <v>B039098</v>
+      </c>
+      <c r="B22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22">
+        <v>4</v>
+      </c>
+      <c r="D22">
+        <v>3</v>
+      </c>
+      <c r="E22" t="s">
+        <v>29</v>
+      </c>
+      <c r="F22">
+        <v>3</v>
+      </c>
+      <c r="G22">
+        <v>3</v>
+      </c>
+      <c r="H22">
+        <v>4</v>
+      </c>
+      <c r="I22">
+        <v>3</v>
+      </c>
+      <c r="J22">
+        <v>2</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>3</v>
+      </c>
+      <c r="M22" t="s">
+        <v>28</v>
+      </c>
+      <c r="N22">
+        <v>4</v>
+      </c>
+      <c r="O22">
+        <v>3</v>
+      </c>
+      <c r="P22" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q22">
+        <v>4</v>
+      </c>
+      <c r="R22">
+        <v>3</v>
+      </c>
+      <c r="S22" t="s">
+        <v>26</v>
+      </c>
+      <c r="T22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="str">
         <f>comment!A23</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24">
+        <v>B072730</v>
+      </c>
+      <c r="B23" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23">
+        <v>4</v>
+      </c>
+      <c r="D23">
+        <v>3</v>
+      </c>
+      <c r="E23" t="s">
+        <v>29</v>
+      </c>
+      <c r="F23">
+        <v>3</v>
+      </c>
+      <c r="G23">
+        <v>3</v>
+      </c>
+      <c r="H23">
+        <v>3</v>
+      </c>
+      <c r="I23">
+        <v>3</v>
+      </c>
+      <c r="J23">
+        <v>2</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
+      <c r="L23">
+        <v>3</v>
+      </c>
+      <c r="M23" t="s">
+        <v>28</v>
+      </c>
+      <c r="N23">
+        <v>3</v>
+      </c>
+      <c r="O23">
+        <v>3</v>
+      </c>
+      <c r="P23" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q23">
+        <v>3</v>
+      </c>
+      <c r="R23">
+        <v>2</v>
+      </c>
+      <c r="S23" t="s">
+        <v>26</v>
+      </c>
+      <c r="T23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="str">
         <f>comment!A24</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25">
+        <v>B007635</v>
+      </c>
+      <c r="B24" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24">
+        <v>4</v>
+      </c>
+      <c r="D24">
+        <v>3</v>
+      </c>
+      <c r="E24" t="s">
+        <v>29</v>
+      </c>
+      <c r="F24">
+        <v>3</v>
+      </c>
+      <c r="G24">
+        <v>3</v>
+      </c>
+      <c r="H24">
+        <v>3</v>
+      </c>
+      <c r="I24">
+        <v>3</v>
+      </c>
+      <c r="J24">
+        <v>2</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <v>3</v>
+      </c>
+      <c r="M24" t="s">
+        <v>28</v>
+      </c>
+      <c r="N24">
+        <v>4</v>
+      </c>
+      <c r="O24">
+        <v>3</v>
+      </c>
+      <c r="P24" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q24">
+        <v>3</v>
+      </c>
+      <c r="R24">
+        <v>3</v>
+      </c>
+      <c r="S24" t="s">
+        <v>26</v>
+      </c>
+      <c r="T24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="str">
         <f>comment!A25</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26">
+        <v>B066292</v>
+      </c>
+      <c r="B25" t="s">
+        <v>30</v>
+      </c>
+      <c r="C25">
+        <v>5</v>
+      </c>
+      <c r="D25">
+        <v>4</v>
+      </c>
+      <c r="E25" t="s">
+        <v>29</v>
+      </c>
+      <c r="F25">
+        <v>4</v>
+      </c>
+      <c r="G25">
+        <v>4</v>
+      </c>
+      <c r="H25">
+        <v>4</v>
+      </c>
+      <c r="I25">
+        <v>4</v>
+      </c>
+      <c r="J25">
+        <v>3</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>3</v>
+      </c>
+      <c r="M25" t="s">
+        <v>28</v>
+      </c>
+      <c r="N25">
+        <v>4</v>
+      </c>
+      <c r="O25">
+        <v>4</v>
+      </c>
+      <c r="P25" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q25">
+        <v>5</v>
+      </c>
+      <c r="R25">
+        <v>4</v>
+      </c>
+      <c r="S25" t="s">
+        <v>26</v>
+      </c>
+      <c r="T25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="str">
         <f>comment!A26</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27">
+        <v>B072765</v>
+      </c>
+      <c r="B26" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26">
+        <v>4</v>
+      </c>
+      <c r="D26">
+        <v>4</v>
+      </c>
+      <c r="E26" t="s">
+        <v>29</v>
+      </c>
+      <c r="F26">
+        <v>4</v>
+      </c>
+      <c r="G26">
+        <v>4</v>
+      </c>
+      <c r="H26">
+        <v>4</v>
+      </c>
+      <c r="I26">
+        <v>3</v>
+      </c>
+      <c r="J26">
+        <v>3</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>3</v>
+      </c>
+      <c r="M26" t="s">
+        <v>28</v>
+      </c>
+      <c r="N26">
+        <v>4</v>
+      </c>
+      <c r="O26">
+        <v>4</v>
+      </c>
+      <c r="P26" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q26">
+        <v>5</v>
+      </c>
+      <c r="R26">
+        <v>4</v>
+      </c>
+      <c r="S26" t="s">
+        <v>26</v>
+      </c>
+      <c r="T26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="str">
         <f>comment!A27</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28">
+        <v>B005028</v>
+      </c>
+      <c r="B27" t="s">
+        <v>30</v>
+      </c>
+      <c r="C27">
+        <v>4</v>
+      </c>
+      <c r="D27">
+        <v>4</v>
+      </c>
+      <c r="E27" t="s">
+        <v>29</v>
+      </c>
+      <c r="F27">
+        <v>3</v>
+      </c>
+      <c r="G27">
+        <v>3</v>
+      </c>
+      <c r="H27">
+        <v>4</v>
+      </c>
+      <c r="I27">
+        <v>4</v>
+      </c>
+      <c r="J27">
+        <v>4</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>4</v>
+      </c>
+      <c r="M27" t="s">
+        <v>28</v>
+      </c>
+      <c r="N27">
+        <v>5</v>
+      </c>
+      <c r="O27">
+        <v>4</v>
+      </c>
+      <c r="P27" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q27">
+        <v>4</v>
+      </c>
+      <c r="R27">
+        <v>4</v>
+      </c>
+      <c r="S27" t="s">
+        <v>26</v>
+      </c>
+      <c r="T27">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="str">
         <f>comment!A28</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29">
+        <v>B024590</v>
+      </c>
+      <c r="B28" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28">
+        <v>4</v>
+      </c>
+      <c r="D28">
+        <v>4</v>
+      </c>
+      <c r="E28" t="s">
+        <v>29</v>
+      </c>
+      <c r="F28">
+        <v>3</v>
+      </c>
+      <c r="G28">
+        <v>3</v>
+      </c>
+      <c r="H28">
+        <v>4</v>
+      </c>
+      <c r="I28">
+        <v>3</v>
+      </c>
+      <c r="J28">
+        <v>3</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>4</v>
+      </c>
+      <c r="M28" t="s">
+        <v>28</v>
+      </c>
+      <c r="N28">
+        <v>4</v>
+      </c>
+      <c r="O28">
+        <v>3</v>
+      </c>
+      <c r="P28" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q28">
+        <v>5</v>
+      </c>
+      <c r="R28">
+        <v>3</v>
+      </c>
+      <c r="S28" t="s">
+        <v>26</v>
+      </c>
+      <c r="T28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="str">
         <f>comment!A29</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1">
-      <c r="A30">
+        <v>B034365</v>
+      </c>
+      <c r="B29" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29">
+        <v>4</v>
+      </c>
+      <c r="D29">
+        <v>3</v>
+      </c>
+      <c r="E29" t="s">
+        <v>29</v>
+      </c>
+      <c r="F29">
+        <v>3</v>
+      </c>
+      <c r="G29">
+        <v>3</v>
+      </c>
+      <c r="H29">
+        <v>4</v>
+      </c>
+      <c r="I29">
+        <v>4</v>
+      </c>
+      <c r="J29">
+        <v>3</v>
+      </c>
+      <c r="K29">
+        <v>2</v>
+      </c>
+      <c r="L29">
+        <v>3</v>
+      </c>
+      <c r="M29" t="s">
+        <v>28</v>
+      </c>
+      <c r="N29">
+        <v>4</v>
+      </c>
+      <c r="O29">
+        <v>3</v>
+      </c>
+      <c r="P29" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q29">
+        <v>4</v>
+      </c>
+      <c r="R29">
+        <v>4</v>
+      </c>
+      <c r="S29" t="s">
+        <v>26</v>
+      </c>
+      <c r="T29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="str">
         <f>comment!A30</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1">
-      <c r="A31">
+        <v>B024091</v>
+      </c>
+      <c r="B30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30">
+        <v>5</v>
+      </c>
+      <c r="D30">
+        <v>4</v>
+      </c>
+      <c r="E30" t="s">
+        <v>29</v>
+      </c>
+      <c r="F30">
+        <v>4</v>
+      </c>
+      <c r="G30">
+        <v>4</v>
+      </c>
+      <c r="H30">
+        <v>4</v>
+      </c>
+      <c r="I30">
+        <v>4</v>
+      </c>
+      <c r="J30">
+        <v>3</v>
+      </c>
+      <c r="K30">
+        <v>4</v>
+      </c>
+      <c r="L30">
+        <v>4</v>
+      </c>
+      <c r="M30" t="s">
+        <v>28</v>
+      </c>
+      <c r="N30">
+        <v>4</v>
+      </c>
+      <c r="O30">
+        <v>4</v>
+      </c>
+      <c r="P30" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q30">
+        <v>4</v>
+      </c>
+      <c r="R30">
+        <v>4</v>
+      </c>
+      <c r="S30" t="s">
+        <v>26</v>
+      </c>
+      <c r="T30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="str">
         <f>comment!A31</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1">
-      <c r="A32">
+        <v>B035029</v>
+      </c>
+      <c r="B31" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31">
+        <v>4</v>
+      </c>
+      <c r="D31">
+        <v>4</v>
+      </c>
+      <c r="E31" t="s">
+        <v>29</v>
+      </c>
+      <c r="F31">
+        <v>5</v>
+      </c>
+      <c r="G31">
+        <v>4</v>
+      </c>
+      <c r="H31">
+        <v>4</v>
+      </c>
+      <c r="I31">
+        <v>4</v>
+      </c>
+      <c r="J31">
+        <v>2</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>3</v>
+      </c>
+      <c r="M31" t="s">
+        <v>28</v>
+      </c>
+      <c r="N31">
+        <v>4</v>
+      </c>
+      <c r="O31">
+        <v>4</v>
+      </c>
+      <c r="P31" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q31">
+        <v>4</v>
+      </c>
+      <c r="R31">
+        <v>4</v>
+      </c>
+      <c r="S31" t="s">
+        <v>26</v>
+      </c>
+      <c r="T31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="str">
         <f>comment!A32</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33">
+        <v>B037812</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <v>4</v>
+      </c>
+      <c r="D32">
+        <v>3</v>
+      </c>
+      <c r="E32" t="s">
+        <v>29</v>
+      </c>
+      <c r="F32">
+        <v>3</v>
+      </c>
+      <c r="G32">
+        <v>3</v>
+      </c>
+      <c r="H32">
+        <v>3</v>
+      </c>
+      <c r="I32">
+        <v>4</v>
+      </c>
+      <c r="J32">
+        <v>3</v>
+      </c>
+      <c r="K32">
+        <v>3</v>
+      </c>
+      <c r="L32">
+        <v>4</v>
+      </c>
+      <c r="M32" t="s">
+        <v>28</v>
+      </c>
+      <c r="N32">
+        <v>4</v>
+      </c>
+      <c r="O32">
+        <v>4</v>
+      </c>
+      <c r="P32" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q32">
+        <v>4</v>
+      </c>
+      <c r="R32">
+        <v>3</v>
+      </c>
+      <c r="S32" t="s">
+        <v>26</v>
+      </c>
+      <c r="T32">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="str">
         <f>comment!A33</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34">
+        <v>B028670</v>
+      </c>
+      <c r="B33" t="s">
+        <v>30</v>
+      </c>
+      <c r="C33">
+        <v>5</v>
+      </c>
+      <c r="D33">
+        <v>3</v>
+      </c>
+      <c r="E33" t="s">
+        <v>29</v>
+      </c>
+      <c r="F33">
+        <v>4</v>
+      </c>
+      <c r="G33">
+        <v>4</v>
+      </c>
+      <c r="H33">
+        <v>4</v>
+      </c>
+      <c r="I33">
+        <v>3</v>
+      </c>
+      <c r="J33">
+        <v>3</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>4</v>
+      </c>
+      <c r="M33" t="s">
+        <v>28</v>
+      </c>
+      <c r="N33">
+        <v>4</v>
+      </c>
+      <c r="O33">
+        <v>4</v>
+      </c>
+      <c r="P33" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q33">
+        <v>4</v>
+      </c>
+      <c r="R33">
+        <v>2</v>
+      </c>
+      <c r="S33" t="s">
+        <v>26</v>
+      </c>
+      <c r="T33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="str">
         <f>comment!A34</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35">
+        <v>B072799</v>
+      </c>
+      <c r="B34" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34">
+        <v>5</v>
+      </c>
+      <c r="D34">
+        <v>3</v>
+      </c>
+      <c r="E34" t="s">
+        <v>29</v>
+      </c>
+      <c r="F34">
+        <v>4</v>
+      </c>
+      <c r="G34">
+        <v>4</v>
+      </c>
+      <c r="H34">
+        <v>4</v>
+      </c>
+      <c r="I34">
+        <v>3</v>
+      </c>
+      <c r="J34">
+        <v>3</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>4</v>
+      </c>
+      <c r="M34" t="s">
+        <v>28</v>
+      </c>
+      <c r="N34">
+        <v>4</v>
+      </c>
+      <c r="O34">
+        <v>4</v>
+      </c>
+      <c r="P34" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q34">
+        <v>4</v>
+      </c>
+      <c r="R34">
+        <v>4</v>
+      </c>
+      <c r="S34" t="s">
+        <v>26</v>
+      </c>
+      <c r="T34">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="str">
         <f>comment!A35</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36">
+        <v>B072582</v>
+      </c>
+      <c r="B35" t="s">
+        <v>30</v>
+      </c>
+      <c r="C35">
+        <v>4</v>
+      </c>
+      <c r="D35">
+        <v>3</v>
+      </c>
+      <c r="E35" t="s">
+        <v>29</v>
+      </c>
+      <c r="F35">
+        <v>4</v>
+      </c>
+      <c r="G35">
+        <v>4</v>
+      </c>
+      <c r="H35">
+        <v>4</v>
+      </c>
+      <c r="I35">
+        <v>4</v>
+      </c>
+      <c r="J35">
+        <v>3</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>3</v>
+      </c>
+      <c r="M35" t="s">
+        <v>28</v>
+      </c>
+      <c r="N35">
+        <v>4</v>
+      </c>
+      <c r="O35">
+        <v>3</v>
+      </c>
+      <c r="P35" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q35">
+        <v>5</v>
+      </c>
+      <c r="R35">
+        <v>4</v>
+      </c>
+      <c r="S35" t="s">
+        <v>26</v>
+      </c>
+      <c r="T35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="str">
         <f>comment!A36</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1">
-      <c r="A37">
-        <f>comment!A37</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1">
-      <c r="A38">
-        <f>comment!A38</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1">
-      <c r="A39">
-        <f>comment!A39</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1">
-      <c r="A40">
-        <f>comment!A40</f>
-        <v>0</v>
+        <v>B072761</v>
+      </c>
+      <c r="B36" t="s">
+        <v>30</v>
+      </c>
+      <c r="C36">
+        <v>4</v>
+      </c>
+      <c r="D36">
+        <v>4</v>
+      </c>
+      <c r="E36" t="s">
+        <v>29</v>
+      </c>
+      <c r="F36">
+        <v>5</v>
+      </c>
+      <c r="G36">
+        <v>4</v>
+      </c>
+      <c r="H36">
+        <v>4</v>
+      </c>
+      <c r="I36">
+        <v>3</v>
+      </c>
+      <c r="J36">
+        <v>4</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>4</v>
+      </c>
+      <c r="M36" t="s">
+        <v>28</v>
+      </c>
+      <c r="N36">
+        <v>4</v>
+      </c>
+      <c r="O36">
+        <v>4</v>
+      </c>
+      <c r="P36" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q36">
+        <v>5</v>
+      </c>
+      <c r="R36">
+        <v>4</v>
+      </c>
+      <c r="S36" t="s">
+        <v>26</v>
+      </c>
+      <c r="T36">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1982,10 +3766,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W8"/>
+  <dimension ref="A1:W36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P34" sqref="P34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -2016,7 +3800,7 @@
         <v>18</v>
       </c>
       <c r="I1" t="s">
-        <v>78</v>
+        <v>113</v>
       </c>
       <c r="J1" t="s">
         <v>17</v>
@@ -2075,7 +3859,7 @@
         <v>3</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -2087,7 +3871,7 @@
         <v>3</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J2">
         <v>3</v>
@@ -2102,7 +3886,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O2">
         <v>3</v>
@@ -2158,7 +3942,7 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J3">
         <v>2</v>
@@ -2342,12 +4126,12 @@
         <v>1</v>
       </c>
       <c r="W5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:23">
       <c r="A6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B6">
         <v>3</v>
@@ -2413,12 +4197,12 @@
         <v>1</v>
       </c>
       <c r="W6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:23">
       <c r="A7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B7">
         <v>3</v>
@@ -2484,78 +4268,2066 @@
         <v>1</v>
       </c>
       <c r="W7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:23">
       <c r="A8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>5</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+      <c r="H8">
+        <v>2</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>2</v>
+      </c>
+      <c r="M8">
+        <v>4</v>
+      </c>
+      <c r="N8">
+        <v>5</v>
+      </c>
+      <c r="O8">
+        <v>1</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>2</v>
+      </c>
+      <c r="R8">
+        <v>1</v>
+      </c>
+      <c r="S8">
+        <v>1</v>
+      </c>
+      <c r="T8">
+        <v>1</v>
+      </c>
+      <c r="U8">
+        <v>1</v>
+      </c>
+      <c r="V8">
+        <v>1</v>
+      </c>
+      <c r="W8" t="s">
         <v>84</v>
       </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>5</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>2</v>
-      </c>
-      <c r="H8">
-        <v>2</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>1</v>
-      </c>
-      <c r="K8">
-        <v>2</v>
-      </c>
-      <c r="L8">
-        <v>2</v>
-      </c>
-      <c r="M8">
-        <v>4</v>
-      </c>
-      <c r="N8">
-        <v>5</v>
-      </c>
-      <c r="O8">
-        <v>1</v>
-      </c>
-      <c r="P8">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>2</v>
-      </c>
-      <c r="R8">
-        <v>1</v>
-      </c>
-      <c r="S8">
-        <v>1</v>
-      </c>
-      <c r="T8">
-        <v>1</v>
-      </c>
-      <c r="U8">
-        <v>1</v>
-      </c>
-      <c r="V8">
-        <v>1</v>
-      </c>
-      <c r="W8" t="s">
+    </row>
+    <row r="9" spans="1:23">
+      <c r="A9" t="s">
         <v>85</v>
+      </c>
+      <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <v>5</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>4</v>
+      </c>
+      <c r="G9">
+        <v>4</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>5</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>1</v>
+      </c>
+      <c r="R9">
+        <v>1</v>
+      </c>
+      <c r="S9">
+        <v>1</v>
+      </c>
+      <c r="T9">
+        <v>1</v>
+      </c>
+      <c r="U9">
+        <v>6</v>
+      </c>
+      <c r="V9">
+        <v>1</v>
+      </c>
+      <c r="W9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
+      <c r="A10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>5</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>3</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>5</v>
+      </c>
+      <c r="K10">
+        <v>4</v>
+      </c>
+      <c r="L10">
+        <v>3</v>
+      </c>
+      <c r="M10">
+        <v>4</v>
+      </c>
+      <c r="N10">
+        <v>2</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>3</v>
+      </c>
+      <c r="Q10">
+        <v>1</v>
+      </c>
+      <c r="R10">
+        <v>5</v>
+      </c>
+      <c r="S10">
+        <v>1</v>
+      </c>
+      <c r="T10">
+        <v>1</v>
+      </c>
+      <c r="U10">
+        <v>6</v>
+      </c>
+      <c r="V10">
+        <v>1</v>
+      </c>
+      <c r="W10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
+      <c r="A11" t="s">
+        <v>90</v>
+      </c>
+      <c r="B11">
+        <v>5</v>
+      </c>
+      <c r="C11">
+        <v>4</v>
+      </c>
+      <c r="D11">
+        <v>5</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>2</v>
+      </c>
+      <c r="H11">
+        <v>5</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>2</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>5</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>5</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>5</v>
+      </c>
+      <c r="Q11">
+        <v>4</v>
+      </c>
+      <c r="R11">
+        <v>6</v>
+      </c>
+      <c r="S11">
+        <v>4</v>
+      </c>
+      <c r="T11">
+        <v>4</v>
+      </c>
+      <c r="U11">
+        <v>1</v>
+      </c>
+      <c r="V11">
+        <v>1</v>
+      </c>
+      <c r="W11" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
+      <c r="A12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B12">
+        <v>5</v>
+      </c>
+      <c r="C12">
+        <v>4</v>
+      </c>
+      <c r="D12">
+        <v>5</v>
+      </c>
+      <c r="E12">
+        <v>5</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>3</v>
+      </c>
+      <c r="I12">
+        <v>2</v>
+      </c>
+      <c r="J12">
+        <v>4</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>4</v>
+      </c>
+      <c r="M12">
+        <v>5</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>1</v>
+      </c>
+      <c r="R12">
+        <v>1</v>
+      </c>
+      <c r="S12">
+        <v>6</v>
+      </c>
+      <c r="T12">
+        <v>1</v>
+      </c>
+      <c r="U12">
+        <v>1</v>
+      </c>
+      <c r="V12">
+        <v>1</v>
+      </c>
+      <c r="W12" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
+      <c r="A13" t="s">
+        <v>94</v>
+      </c>
+      <c r="B13">
+        <v>5</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+      <c r="D13">
+        <v>5</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>3</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>4</v>
+      </c>
+      <c r="K13">
+        <v>5</v>
+      </c>
+      <c r="L13">
+        <v>4</v>
+      </c>
+      <c r="M13">
+        <v>2</v>
+      </c>
+      <c r="N13">
+        <v>3</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>3</v>
+      </c>
+      <c r="Q13">
+        <v>4</v>
+      </c>
+      <c r="R13">
+        <v>4</v>
+      </c>
+      <c r="S13">
+        <v>1</v>
+      </c>
+      <c r="T13">
+        <v>1</v>
+      </c>
+      <c r="U13">
+        <v>1</v>
+      </c>
+      <c r="V13">
+        <v>1</v>
+      </c>
+      <c r="W13" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
+      <c r="A14" t="s">
+        <v>96</v>
+      </c>
+      <c r="B14">
+        <v>5</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>4</v>
+      </c>
+      <c r="E14">
+        <v>5</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>3</v>
+      </c>
+      <c r="H14">
+        <v>2</v>
+      </c>
+      <c r="I14">
+        <v>3</v>
+      </c>
+      <c r="J14">
+        <v>4</v>
+      </c>
+      <c r="K14">
+        <v>4</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>1</v>
+      </c>
+      <c r="N14">
+        <v>2</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>1</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>4</v>
+      </c>
+      <c r="S14">
+        <v>1</v>
+      </c>
+      <c r="T14">
+        <v>1</v>
+      </c>
+      <c r="U14">
+        <v>6</v>
+      </c>
+      <c r="V14">
+        <v>1</v>
+      </c>
+      <c r="W14" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
+      <c r="A15" t="s">
+        <v>98</v>
+      </c>
+      <c r="B15">
+        <v>5</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
+      <c r="D15">
+        <v>4</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>4</v>
+      </c>
+      <c r="H15">
+        <v>2</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>5</v>
+      </c>
+      <c r="K15">
+        <v>5</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>4</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>3</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>1</v>
+      </c>
+      <c r="T15">
+        <v>1</v>
+      </c>
+      <c r="U15">
+        <v>6</v>
+      </c>
+      <c r="V15">
+        <v>1</v>
+      </c>
+      <c r="W15" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23">
+      <c r="A16" t="s">
+        <v>100</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>3</v>
+      </c>
+      <c r="E16">
+        <v>5</v>
+      </c>
+      <c r="F16">
+        <v>3</v>
+      </c>
+      <c r="G16">
+        <v>4</v>
+      </c>
+      <c r="H16">
+        <v>4</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>5</v>
+      </c>
+      <c r="K16">
+        <v>4</v>
+      </c>
+      <c r="L16">
+        <v>2</v>
+      </c>
+      <c r="M16">
+        <v>4</v>
+      </c>
+      <c r="N16">
+        <v>4</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>3</v>
+      </c>
+      <c r="R16">
+        <v>1</v>
+      </c>
+      <c r="S16">
+        <v>1</v>
+      </c>
+      <c r="T16">
+        <v>1</v>
+      </c>
+      <c r="U16">
+        <v>1</v>
+      </c>
+      <c r="V16">
+        <v>1</v>
+      </c>
+      <c r="W16" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23">
+      <c r="A17" t="s">
+        <v>102</v>
+      </c>
+      <c r="B17">
+        <v>5</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>4</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>4</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>2</v>
+      </c>
+      <c r="J17">
+        <v>3</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>3</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>3</v>
+      </c>
+      <c r="Q17">
+        <v>1</v>
+      </c>
+      <c r="R17">
+        <v>1</v>
+      </c>
+      <c r="S17">
+        <v>2</v>
+      </c>
+      <c r="T17">
+        <v>1</v>
+      </c>
+      <c r="U17">
+        <v>6</v>
+      </c>
+      <c r="V17">
+        <v>1</v>
+      </c>
+      <c r="W17" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23">
+      <c r="A18" t="s">
+        <v>104</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18">
+        <v>4</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>4</v>
+      </c>
+      <c r="H18">
+        <v>4</v>
+      </c>
+      <c r="I18">
+        <v>2</v>
+      </c>
+      <c r="J18">
+        <v>5</v>
+      </c>
+      <c r="K18">
+        <v>4</v>
+      </c>
+      <c r="L18">
+        <v>3</v>
+      </c>
+      <c r="M18">
+        <v>2</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+      <c r="O18">
+        <v>1</v>
+      </c>
+      <c r="P18">
+        <v>2</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>1</v>
+      </c>
+      <c r="S18">
+        <v>1</v>
+      </c>
+      <c r="T18">
+        <v>1</v>
+      </c>
+      <c r="U18">
+        <v>6</v>
+      </c>
+      <c r="V18">
+        <v>1</v>
+      </c>
+      <c r="W18" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23">
+      <c r="A19" t="s">
+        <v>106</v>
+      </c>
+      <c r="B19">
+        <v>4</v>
+      </c>
+      <c r="C19">
+        <v>4</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>5</v>
+      </c>
+      <c r="H19">
+        <v>2</v>
+      </c>
+      <c r="I19">
+        <v>4</v>
+      </c>
+      <c r="J19">
+        <v>4</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>4</v>
+      </c>
+      <c r="M19">
+        <v>3</v>
+      </c>
+      <c r="N19">
+        <v>5</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>5</v>
+      </c>
+      <c r="Q19">
+        <v>5</v>
+      </c>
+      <c r="R19">
+        <v>2</v>
+      </c>
+      <c r="S19">
+        <v>6</v>
+      </c>
+      <c r="T19">
+        <v>2</v>
+      </c>
+      <c r="U19">
+        <v>1</v>
+      </c>
+      <c r="V19">
+        <v>1</v>
+      </c>
+      <c r="W19" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
+      <c r="A20" t="s">
+        <v>105</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>5</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+      <c r="G20">
+        <v>3</v>
+      </c>
+      <c r="H20">
+        <v>5</v>
+      </c>
+      <c r="I20">
+        <v>3</v>
+      </c>
+      <c r="J20">
+        <v>3</v>
+      </c>
+      <c r="K20">
+        <v>4</v>
+      </c>
+      <c r="L20">
+        <v>2</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>4</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>5</v>
+      </c>
+      <c r="Q20">
+        <v>3</v>
+      </c>
+      <c r="R20">
+        <v>5</v>
+      </c>
+      <c r="S20">
+        <v>1</v>
+      </c>
+      <c r="T20">
+        <v>1</v>
+      </c>
+      <c r="U20">
+        <v>1</v>
+      </c>
+      <c r="V20">
+        <v>1</v>
+      </c>
+      <c r="W20" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
+      <c r="A21" t="s">
+        <v>107</v>
+      </c>
+      <c r="B21">
+        <v>4</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>4</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>3</v>
+      </c>
+      <c r="J21">
+        <v>5</v>
+      </c>
+      <c r="K21">
+        <v>5</v>
+      </c>
+      <c r="L21">
+        <v>3</v>
+      </c>
+      <c r="M21">
+        <v>3</v>
+      </c>
+      <c r="N21">
+        <v>4</v>
+      </c>
+      <c r="O21">
+        <v>5</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>3</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>1</v>
+      </c>
+      <c r="T21">
+        <v>1</v>
+      </c>
+      <c r="U21">
+        <v>1</v>
+      </c>
+      <c r="V21">
+        <v>1</v>
+      </c>
+      <c r="W21" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
+      <c r="A22" t="s">
+        <v>112</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>2</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>2</v>
+      </c>
+      <c r="K22">
+        <v>5</v>
+      </c>
+      <c r="L22">
+        <v>2</v>
+      </c>
+      <c r="M22">
+        <v>2</v>
+      </c>
+      <c r="N22">
+        <v>3</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>1</v>
+      </c>
+      <c r="R22">
+        <v>2</v>
+      </c>
+      <c r="S22">
+        <v>1</v>
+      </c>
+      <c r="T22">
+        <v>1</v>
+      </c>
+      <c r="U22">
+        <v>6</v>
+      </c>
+      <c r="V22">
+        <v>1</v>
+      </c>
+      <c r="W22" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
+      <c r="A23" t="s">
+        <v>115</v>
+      </c>
+      <c r="B23">
+        <v>4</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>3</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>3</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>2</v>
+      </c>
+      <c r="J23">
+        <v>3</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>2</v>
+      </c>
+      <c r="M23">
+        <v>1</v>
+      </c>
+      <c r="N23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>1</v>
+      </c>
+      <c r="P23">
+        <v>3</v>
+      </c>
+      <c r="Q23">
+        <v>3</v>
+      </c>
+      <c r="R23">
+        <v>5</v>
+      </c>
+      <c r="S23">
+        <v>1</v>
+      </c>
+      <c r="T23">
+        <v>1</v>
+      </c>
+      <c r="U23">
+        <v>6</v>
+      </c>
+      <c r="V23">
+        <v>1</v>
+      </c>
+      <c r="W23" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
+      <c r="A24" t="s">
+        <v>116</v>
+      </c>
+      <c r="B24">
+        <v>4</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>2</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>3</v>
+      </c>
+      <c r="J24">
+        <v>5</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>1</v>
+      </c>
+      <c r="N24">
+        <v>4</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>1</v>
+      </c>
+      <c r="Q24">
+        <v>2</v>
+      </c>
+      <c r="R24">
+        <v>2</v>
+      </c>
+      <c r="S24">
+        <v>1</v>
+      </c>
+      <c r="T24">
+        <v>1</v>
+      </c>
+      <c r="U24">
+        <v>6</v>
+      </c>
+      <c r="V24">
+        <v>1</v>
+      </c>
+      <c r="W24" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23">
+      <c r="A25" t="s">
+        <v>119</v>
+      </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="C25">
+        <v>5</v>
+      </c>
+      <c r="D25">
+        <v>4</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>4</v>
+      </c>
+      <c r="H25">
+        <v>2</v>
+      </c>
+      <c r="I25">
+        <v>5</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>5</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>5</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>1</v>
+      </c>
+      <c r="Q25">
+        <v>5</v>
+      </c>
+      <c r="R25">
+        <v>2</v>
+      </c>
+      <c r="S25">
+        <v>1</v>
+      </c>
+      <c r="T25">
+        <v>3</v>
+      </c>
+      <c r="U25">
+        <v>1</v>
+      </c>
+      <c r="V25">
+        <v>6</v>
+      </c>
+      <c r="W25" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23">
+      <c r="A26" t="s">
+        <v>121</v>
+      </c>
+      <c r="B26">
+        <v>3</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>5</v>
+      </c>
+      <c r="E26">
+        <v>4</v>
+      </c>
+      <c r="F26">
+        <v>4</v>
+      </c>
+      <c r="G26">
+        <v>5</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>4</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>4</v>
+      </c>
+      <c r="M26">
+        <v>4</v>
+      </c>
+      <c r="N26">
+        <v>3</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <v>1</v>
+      </c>
+      <c r="Q26">
+        <v>2</v>
+      </c>
+      <c r="R26">
+        <v>5</v>
+      </c>
+      <c r="S26">
+        <v>1</v>
+      </c>
+      <c r="T26">
+        <v>1</v>
+      </c>
+      <c r="U26">
+        <v>1</v>
+      </c>
+      <c r="V26">
+        <v>1</v>
+      </c>
+      <c r="W26" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23">
+      <c r="A27" t="s">
+        <v>122</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27">
+        <v>5</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>2</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>2</v>
+      </c>
+      <c r="J27">
+        <v>4</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>3</v>
+      </c>
+      <c r="M27">
+        <v>5</v>
+      </c>
+      <c r="N27">
+        <v>4</v>
+      </c>
+      <c r="O27">
+        <v>2</v>
+      </c>
+      <c r="P27">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>2</v>
+      </c>
+      <c r="R27">
+        <v>4</v>
+      </c>
+      <c r="S27">
+        <v>1</v>
+      </c>
+      <c r="T27">
+        <v>1</v>
+      </c>
+      <c r="U27">
+        <v>6</v>
+      </c>
+      <c r="V27">
+        <v>1</v>
+      </c>
+      <c r="W27" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23">
+      <c r="A28" t="s">
+        <v>125</v>
+      </c>
+      <c r="B28">
+        <v>5</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>3</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+      <c r="J28">
+        <v>4</v>
+      </c>
+      <c r="K28">
+        <v>2</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>5</v>
+      </c>
+      <c r="N28">
+        <v>4</v>
+      </c>
+      <c r="O28">
+        <v>3</v>
+      </c>
+      <c r="P28">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>4</v>
+      </c>
+      <c r="R28">
+        <v>4</v>
+      </c>
+      <c r="S28">
+        <v>1</v>
+      </c>
+      <c r="T28">
+        <v>1</v>
+      </c>
+      <c r="U28">
+        <v>6</v>
+      </c>
+      <c r="V28">
+        <v>1</v>
+      </c>
+      <c r="W28" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23">
+      <c r="A29" t="s">
+        <v>126</v>
+      </c>
+      <c r="B29">
+        <v>5</v>
+      </c>
+      <c r="C29">
+        <v>4</v>
+      </c>
+      <c r="D29">
+        <v>5</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>3</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>3</v>
+      </c>
+      <c r="J29">
+        <v>5</v>
+      </c>
+      <c r="K29">
+        <v>2</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>3</v>
+      </c>
+      <c r="N29">
+        <v>5</v>
+      </c>
+      <c r="O29">
+        <v>3</v>
+      </c>
+      <c r="P29">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>2</v>
+      </c>
+      <c r="R29">
+        <v>1</v>
+      </c>
+      <c r="S29">
+        <v>1</v>
+      </c>
+      <c r="T29">
+        <v>1</v>
+      </c>
+      <c r="U29">
+        <v>6</v>
+      </c>
+      <c r="V29">
+        <v>1</v>
+      </c>
+      <c r="W29" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23">
+      <c r="A30" t="s">
+        <v>129</v>
+      </c>
+      <c r="B30">
+        <v>4</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>5</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>2</v>
+      </c>
+      <c r="G30">
+        <v>5</v>
+      </c>
+      <c r="H30">
+        <v>5</v>
+      </c>
+      <c r="I30">
+        <v>2</v>
+      </c>
+      <c r="J30">
+        <v>5</v>
+      </c>
+      <c r="K30">
+        <v>2</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>1</v>
+      </c>
+      <c r="N30">
+        <v>2</v>
+      </c>
+      <c r="O30">
+        <v>2</v>
+      </c>
+      <c r="P30">
+        <v>4</v>
+      </c>
+      <c r="Q30">
+        <v>1</v>
+      </c>
+      <c r="R30">
+        <v>5</v>
+      </c>
+      <c r="S30">
+        <v>1</v>
+      </c>
+      <c r="T30">
+        <v>3</v>
+      </c>
+      <c r="U30">
+        <v>4</v>
+      </c>
+      <c r="V30">
+        <v>1</v>
+      </c>
+      <c r="W30" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23">
+      <c r="A31" t="s">
+        <v>130</v>
+      </c>
+      <c r="B31">
+        <v>5</v>
+      </c>
+      <c r="C31">
+        <v>4</v>
+      </c>
+      <c r="D31">
+        <v>3</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>4</v>
+      </c>
+      <c r="H31">
+        <v>4</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>3</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>3</v>
+      </c>
+      <c r="N31">
+        <v>5</v>
+      </c>
+      <c r="O31">
+        <v>3</v>
+      </c>
+      <c r="P31">
+        <v>5</v>
+      </c>
+      <c r="Q31">
+        <v>3</v>
+      </c>
+      <c r="R31">
+        <v>4</v>
+      </c>
+      <c r="S31">
+        <v>1</v>
+      </c>
+      <c r="T31">
+        <v>1</v>
+      </c>
+      <c r="U31">
+        <v>6</v>
+      </c>
+      <c r="V31">
+        <v>1</v>
+      </c>
+      <c r="W31" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23">
+      <c r="A32" t="s">
+        <v>131</v>
+      </c>
+      <c r="B32">
+        <v>2</v>
+      </c>
+      <c r="C32">
+        <v>3</v>
+      </c>
+      <c r="D32">
+        <v>2</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>5</v>
+      </c>
+      <c r="H32">
+        <v>1</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>1</v>
+      </c>
+      <c r="K32">
+        <v>1</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <v>2</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32">
+        <v>4</v>
+      </c>
+      <c r="Q32">
+        <v>2</v>
+      </c>
+      <c r="R32">
+        <v>5</v>
+      </c>
+      <c r="S32">
+        <v>1</v>
+      </c>
+      <c r="T32">
+        <v>1</v>
+      </c>
+      <c r="U32">
+        <v>1</v>
+      </c>
+      <c r="V32">
+        <v>3</v>
+      </c>
+      <c r="W32" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23">
+      <c r="A33" t="s">
+        <v>132</v>
+      </c>
+      <c r="B33">
+        <v>5</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>2</v>
+      </c>
+      <c r="G33">
+        <v>5</v>
+      </c>
+      <c r="H33">
+        <v>4</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>2</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>3</v>
+      </c>
+      <c r="M33">
+        <v>2</v>
+      </c>
+      <c r="N33">
+        <v>2</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33">
+        <v>2</v>
+      </c>
+      <c r="Q33">
+        <v>1</v>
+      </c>
+      <c r="R33">
+        <v>5</v>
+      </c>
+      <c r="S33">
+        <v>1</v>
+      </c>
+      <c r="T33">
+        <v>4</v>
+      </c>
+      <c r="U33">
+        <v>6</v>
+      </c>
+      <c r="V33">
+        <v>1</v>
+      </c>
+      <c r="W33" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23">
+      <c r="A34" t="s">
+        <v>133</v>
+      </c>
+      <c r="B34">
+        <v>5</v>
+      </c>
+      <c r="C34">
+        <v>2</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>5</v>
+      </c>
+      <c r="H34">
+        <v>1</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>4</v>
+      </c>
+      <c r="K34">
+        <v>4</v>
+      </c>
+      <c r="L34">
+        <v>4</v>
+      </c>
+      <c r="M34">
+        <v>2</v>
+      </c>
+      <c r="N34">
+        <v>2</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34">
+        <v>4</v>
+      </c>
+      <c r="Q34">
+        <v>1</v>
+      </c>
+      <c r="R34">
+        <v>4</v>
+      </c>
+      <c r="S34">
+        <v>3</v>
+      </c>
+      <c r="T34">
+        <v>1</v>
+      </c>
+      <c r="U34">
+        <v>1</v>
+      </c>
+      <c r="V34">
+        <v>1</v>
+      </c>
+      <c r="W34" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23">
+      <c r="A35" t="s">
+        <v>134</v>
+      </c>
+      <c r="B35">
+        <v>3</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>2</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>3</v>
+      </c>
+      <c r="H35">
+        <v>2</v>
+      </c>
+      <c r="I35">
+        <v>3</v>
+      </c>
+      <c r="J35">
+        <v>3</v>
+      </c>
+      <c r="K35">
+        <v>5</v>
+      </c>
+      <c r="L35">
+        <v>2</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <v>5</v>
+      </c>
+      <c r="O35">
+        <v>3</v>
+      </c>
+      <c r="P35">
+        <v>5</v>
+      </c>
+      <c r="Q35">
+        <v>2</v>
+      </c>
+      <c r="R35">
+        <v>5</v>
+      </c>
+      <c r="S35">
+        <v>1</v>
+      </c>
+      <c r="T35">
+        <v>1</v>
+      </c>
+      <c r="U35">
+        <v>4</v>
+      </c>
+      <c r="V35">
+        <v>1</v>
+      </c>
+      <c r="W35" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23">
+      <c r="A36" t="s">
+        <v>135</v>
+      </c>
+      <c r="B36">
+        <v>5</v>
+      </c>
+      <c r="C36">
+        <v>5</v>
+      </c>
+      <c r="D36">
+        <v>3</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>5</v>
+      </c>
+      <c r="H36">
+        <v>1</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>5</v>
+      </c>
+      <c r="K36">
+        <v>4</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <v>0</v>
+      </c>
+      <c r="N36">
+        <v>3</v>
+      </c>
+      <c r="O36">
+        <v>1</v>
+      </c>
+      <c r="P36">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>2</v>
+      </c>
+      <c r="R36">
+        <v>4</v>
+      </c>
+      <c r="S36">
+        <v>1</v>
+      </c>
+      <c r="T36">
+        <v>1</v>
+      </c>
+      <c r="U36">
+        <v>3</v>
+      </c>
+      <c r="V36">
+        <v>1</v>
+      </c>
+      <c r="W36" t="s">
+        <v>141</v>
       </c>
     </row>
   </sheetData>

--- a/ugmarks.xlsx
+++ b/ugmarks.xlsx
@@ -4,13 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="25516"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="41000" yWindow="0" windowWidth="38420" windowHeight="19560" activeTab="1"/>
+    <workbookView xWindow="7680" yWindow="1060" windowWidth="27220" windowHeight="16060" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="mark" sheetId="4" r:id="rId1"/>
     <sheet name="comment" sheetId="3" r:id="rId2"/>
-    <sheet name="weight" sheetId="1" r:id="rId3"/>
-    <sheet name="statement" sheetId="5" r:id="rId4"/>
+    <sheet name="form" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -22,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="144">
   <si>
     <t>The argument is meaningful and insightful, it would be better if you could talk more about the industry dynamics.</t>
   </si>
@@ -36,9 +35,6 @@
     <t>B037938</t>
   </si>
   <si>
-    <t>additional</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Apple effectively control the supply chain</t>
   </si>
   <si>
@@ -99,24 +95,6 @@
     <t>Mobile industry is a highly competitive with a few key players</t>
   </si>
   <si>
-    <t>comment</t>
-  </si>
-  <si>
-    <t>Presentation</t>
-  </si>
-  <si>
-    <t>Technical Skills</t>
-  </si>
-  <si>
-    <t>Style</t>
-  </si>
-  <si>
-    <t>Content</t>
-  </si>
-  <si>
-    <t>Structure</t>
-  </si>
-  <si>
     <t>tidy</t>
   </si>
   <si>
@@ -159,9 +137,6 @@
     <t>Clear Objective</t>
   </si>
   <si>
-    <t>No.</t>
-  </si>
-  <si>
     <t>Careless, untidy, looks like a last minute rush</t>
   </si>
   <si>
@@ -518,6 +493,42 @@
   </si>
   <si>
     <t>The analysis on the difference between Apple and Nokia is really nice, with headings and sections, the essay could be more structured.</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Comment</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>weight</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>type</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>STRUCTURE</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>CONTENT</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>STYLE</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>TECHNICAL SKILLS</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRESENTATION</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Additional Comment:</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1001,7 +1012,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="48">
+  <cellStyleXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1126,6 +1137,78 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1152,7 +1235,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="48">
+  <cellStyles count="72">
     <cellStyle name="20% - 强调文字颜色 1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - 强调文字颜色 2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - 强调文字颜色 3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -1180,9 +1263,33 @@
     <cellStyle name="超链接" xfId="42" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="44" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="46" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="48" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="50" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="52" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="54" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="56" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="58" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="60" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="62" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="64" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="66" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="68" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="70" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="43" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="45" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="47" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="49" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="51" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="53" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="55" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="57" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="59" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="61" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="63" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="65" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="67" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="69" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="71" builtinId="9" hidden="1"/>
     <cellStyle name="好" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="汇总" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="计算" xfId="11" builtinId="22" customBuiltin="1"/>
@@ -1470,7 +1577,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1478,170 +1585,139 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T36"/>
+  <dimension ref="A1:O37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>137</v>
       </c>
       <c r="B1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" t="s">
         <v>30</v>
       </c>
-      <c r="C1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="J1" t="s">
         <v>29</v>
       </c>
-      <c r="F1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I1" t="s">
-        <v>39</v>
-      </c>
-      <c r="J1" t="s">
-        <v>38</v>
-      </c>
       <c r="K1" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="L1" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N1" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="O1" t="s">
-        <v>34</v>
-      </c>
-      <c r="P1" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>33</v>
-      </c>
-      <c r="R1" t="s">
-        <v>32</v>
-      </c>
-      <c r="S1" t="s">
-        <v>26</v>
-      </c>
-      <c r="T1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20">
-      <c r="A2" t="str">
-        <f>comment!A2</f>
-        <v>B037938</v>
-      </c>
-      <c r="B2" t="s">
-        <v>30</v>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B2">
+        <v>0.5</v>
       </c>
       <c r="C2">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="D2">
-        <v>4</v>
-      </c>
-      <c r="E2" t="s">
-        <v>29</v>
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>0.5</v>
       </c>
       <c r="F2">
-        <v>4</v>
+        <v>0.5</v>
       </c>
       <c r="G2">
-        <v>4</v>
+        <v>0.5</v>
       </c>
       <c r="H2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I2">
-        <v>4</v>
+        <v>0.5</v>
       </c>
       <c r="J2">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="K2">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="L2">
-        <v>4</v>
-      </c>
-      <c r="M2" t="s">
-        <v>28</v>
+        <v>0.5</v>
+      </c>
+      <c r="M2">
+        <v>0.5</v>
       </c>
       <c r="N2">
-        <v>5</v>
+        <v>0.5</v>
       </c>
       <c r="O2">
-        <v>4</v>
-      </c>
-      <c r="P2" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q2">
-        <v>5</v>
-      </c>
-      <c r="R2">
-        <v>4</v>
-      </c>
-      <c r="S2" t="s">
-        <v>26</v>
-      </c>
-      <c r="T2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" t="str">
         <f>comment!A3</f>
-        <v>B063263</v>
-      </c>
-      <c r="B3" t="s">
-        <v>30</v>
+        <v>B037938</v>
+      </c>
+      <c r="B3">
+        <v>5</v>
       </c>
       <c r="C3">
         <v>4</v>
       </c>
       <c r="D3">
-        <v>3</v>
-      </c>
-      <c r="E3" t="s">
-        <v>29</v>
+        <v>4</v>
+      </c>
+      <c r="E3">
+        <v>4</v>
       </c>
       <c r="F3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G3">
         <v>4</v>
       </c>
       <c r="H3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K3">
         <v>5</v>
@@ -1649,125 +1725,95 @@
       <c r="L3">
         <v>4</v>
       </c>
-      <c r="M3" t="s">
-        <v>28</v>
+      <c r="M3">
+        <v>5</v>
       </c>
       <c r="N3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O3">
-        <v>4</v>
-      </c>
-      <c r="P3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q3">
-        <v>5</v>
-      </c>
-      <c r="R3">
-        <v>4</v>
-      </c>
-      <c r="S3" t="s">
-        <v>26</v>
-      </c>
-      <c r="T3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" t="str">
         <f>comment!A4</f>
-        <v>B072800</v>
-      </c>
-      <c r="B4" t="s">
-        <v>30</v>
+        <v>B063263</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
       </c>
       <c r="C4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D4">
-        <v>3</v>
-      </c>
-      <c r="E4" t="s">
-        <v>29</v>
+        <v>4</v>
+      </c>
+      <c r="E4">
+        <v>4</v>
       </c>
       <c r="F4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L4">
         <v>4</v>
       </c>
-      <c r="M4" t="s">
-        <v>28</v>
+      <c r="M4">
+        <v>5</v>
       </c>
       <c r="N4">
         <v>4</v>
       </c>
       <c r="O4">
-        <v>3</v>
-      </c>
-      <c r="P4" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q4">
-        <v>5</v>
-      </c>
-      <c r="R4">
-        <v>4</v>
-      </c>
-      <c r="S4" t="s">
-        <v>26</v>
-      </c>
-      <c r="T4">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" t="str">
         <f>comment!A5</f>
-        <v>B029601</v>
-      </c>
-      <c r="B5" t="s">
-        <v>30</v>
+        <v>B072800</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
       </c>
       <c r="C5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5">
-        <v>4</v>
-      </c>
-      <c r="E5" t="s">
-        <v>29</v>
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
       </c>
       <c r="F5">
         <v>4</v>
       </c>
       <c r="G5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H5">
         <v>3</v>
       </c>
       <c r="I5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K5">
         <v>4</v>
@@ -1775,110 +1821,80 @@
       <c r="L5">
         <v>3</v>
       </c>
-      <c r="M5" t="s">
-        <v>28</v>
+      <c r="M5">
+        <v>5</v>
       </c>
       <c r="N5">
         <v>4</v>
       </c>
       <c r="O5">
-        <v>3</v>
-      </c>
-      <c r="P5" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q5">
-        <v>4</v>
-      </c>
-      <c r="R5">
-        <v>4</v>
-      </c>
-      <c r="S5" t="s">
-        <v>26</v>
-      </c>
-      <c r="T5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" t="str">
         <f>comment!A6</f>
-        <v>B072577</v>
-      </c>
-      <c r="B6" t="s">
-        <v>30</v>
+        <v>B029601</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
       </c>
       <c r="C6">
         <v>4</v>
       </c>
       <c r="D6">
-        <v>3</v>
-      </c>
-      <c r="E6" t="s">
-        <v>29</v>
+        <v>4</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
       </c>
       <c r="F6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I6">
         <v>4</v>
       </c>
       <c r="J6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K6">
         <v>4</v>
       </c>
       <c r="L6">
-        <v>4</v>
-      </c>
-      <c r="M6" t="s">
-        <v>28</v>
+        <v>3</v>
+      </c>
+      <c r="M6">
+        <v>4</v>
       </c>
       <c r="N6">
         <v>4</v>
       </c>
       <c r="O6">
-        <v>4</v>
-      </c>
-      <c r="P6" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q6">
-        <v>5</v>
-      </c>
-      <c r="R6">
-        <v>4</v>
-      </c>
-      <c r="S6" t="s">
-        <v>26</v>
-      </c>
-      <c r="T6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" t="str">
         <f>comment!A7</f>
-        <v>B072711</v>
-      </c>
-      <c r="B7" t="s">
-        <v>30</v>
+        <v>B072577</v>
+      </c>
+      <c r="B7">
+        <v>4</v>
       </c>
       <c r="C7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D7">
         <v>4</v>
       </c>
-      <c r="E7" t="s">
-        <v>29</v>
+      <c r="E7">
+        <v>4</v>
       </c>
       <c r="F7">
         <v>4</v>
@@ -1887,52 +1903,37 @@
         <v>4</v>
       </c>
       <c r="H7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I7">
         <v>4</v>
       </c>
       <c r="J7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K7">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L7">
         <v>4</v>
       </c>
-      <c r="M7" t="s">
-        <v>28</v>
+      <c r="M7">
+        <v>5</v>
       </c>
       <c r="N7">
         <v>4</v>
       </c>
       <c r="O7">
-        <v>4</v>
-      </c>
-      <c r="P7" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q7">
-        <v>4</v>
-      </c>
-      <c r="R7">
-        <v>4</v>
-      </c>
-      <c r="S7" t="s">
-        <v>26</v>
-      </c>
-      <c r="T7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" t="str">
         <f>comment!A8</f>
-        <v>B036107</v>
-      </c>
-      <c r="B8" t="s">
-        <v>30</v>
+        <v>B072711</v>
+      </c>
+      <c r="B8">
+        <v>4</v>
       </c>
       <c r="C8">
         <v>4</v>
@@ -1940,385 +1941,295 @@
       <c r="D8">
         <v>4</v>
       </c>
-      <c r="E8" t="s">
-        <v>29</v>
+      <c r="E8">
+        <v>4</v>
       </c>
       <c r="F8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G8">
         <v>4</v>
       </c>
       <c r="H8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I8">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K8">
         <v>4</v>
       </c>
       <c r="L8">
-        <v>3</v>
-      </c>
-      <c r="M8" t="s">
-        <v>28</v>
+        <v>4</v>
+      </c>
+      <c r="M8">
+        <v>4</v>
       </c>
       <c r="N8">
         <v>4</v>
       </c>
       <c r="O8">
-        <v>4</v>
-      </c>
-      <c r="P8" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q8">
-        <v>5</v>
-      </c>
-      <c r="R8">
-        <v>2</v>
-      </c>
-      <c r="S8" t="s">
-        <v>26</v>
-      </c>
-      <c r="T8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" t="str">
         <f>comment!A9</f>
+        <v>B036107</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9">
+        <v>4</v>
+      </c>
+      <c r="F9">
+        <v>3</v>
+      </c>
+      <c r="G9">
+        <v>3</v>
+      </c>
+      <c r="H9">
+        <v>3</v>
+      </c>
+      <c r="I9">
+        <v>4</v>
+      </c>
+      <c r="J9">
+        <v>3</v>
+      </c>
+      <c r="K9">
+        <v>4</v>
+      </c>
+      <c r="L9">
+        <v>4</v>
+      </c>
+      <c r="M9">
+        <v>5</v>
+      </c>
+      <c r="N9">
+        <v>2</v>
+      </c>
+      <c r="O9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" t="str">
+        <f>comment!A10</f>
         <v>B038524</v>
       </c>
-      <c r="B9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9">
-        <v>4</v>
-      </c>
-      <c r="D9">
-        <v>4</v>
-      </c>
-      <c r="E9" t="s">
-        <v>29</v>
-      </c>
-      <c r="F9">
-        <v>4</v>
-      </c>
-      <c r="G9">
-        <v>4</v>
-      </c>
-      <c r="H9">
-        <v>4</v>
-      </c>
-      <c r="I9">
-        <v>3</v>
-      </c>
-      <c r="J9">
-        <v>3</v>
-      </c>
-      <c r="K9">
-        <v>4</v>
-      </c>
-      <c r="L9">
-        <v>4</v>
-      </c>
-      <c r="M9" t="s">
-        <v>28</v>
-      </c>
-      <c r="N9">
-        <v>4</v>
-      </c>
-      <c r="O9">
-        <v>4</v>
-      </c>
-      <c r="P9" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q9">
-        <v>4</v>
-      </c>
-      <c r="R9">
-        <v>3</v>
-      </c>
-      <c r="S9" t="s">
-        <v>26</v>
-      </c>
-      <c r="T9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>87</v>
-      </c>
-      <c r="B10" t="s">
-        <v>30</v>
+      <c r="B10">
+        <v>4</v>
       </c>
       <c r="C10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D10">
         <v>4</v>
       </c>
-      <c r="E10" t="s">
-        <v>29</v>
+      <c r="E10">
+        <v>4</v>
       </c>
       <c r="F10">
         <v>4</v>
       </c>
       <c r="G10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I10">
         <v>4</v>
       </c>
       <c r="J10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L10">
         <v>4</v>
       </c>
-      <c r="M10" t="s">
-        <v>28</v>
+      <c r="M10">
+        <v>4</v>
       </c>
       <c r="N10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O10">
-        <v>4</v>
-      </c>
-      <c r="P10" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q10">
-        <v>5</v>
-      </c>
-      <c r="R10">
-        <v>4</v>
-      </c>
-      <c r="S10" t="s">
-        <v>26</v>
-      </c>
-      <c r="T10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="str">
-        <f>comment!A11</f>
-        <v>B032202</v>
-      </c>
-      <c r="B11" t="s">
-        <v>30</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B11">
+        <v>5</v>
       </c>
       <c r="C11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D11">
         <v>4</v>
       </c>
-      <c r="E11" t="s">
-        <v>29</v>
+      <c r="E11">
+        <v>4</v>
       </c>
       <c r="F11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H11">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I11">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L11">
-        <v>5</v>
-      </c>
-      <c r="M11" t="s">
-        <v>28</v>
+        <v>4</v>
+      </c>
+      <c r="M11">
+        <v>5</v>
       </c>
       <c r="N11">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O11">
-        <v>5</v>
-      </c>
-      <c r="P11" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q11">
-        <v>5</v>
-      </c>
-      <c r="R11">
-        <v>4</v>
-      </c>
-      <c r="S11" t="s">
-        <v>26</v>
-      </c>
-      <c r="T11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" t="str">
         <f>comment!A12</f>
-        <v>B023020</v>
-      </c>
-      <c r="B12" t="s">
-        <v>30</v>
+        <v>B032202</v>
+      </c>
+      <c r="B12">
+        <v>5</v>
       </c>
       <c r="C12">
         <v>4</v>
       </c>
       <c r="D12">
-        <v>4</v>
-      </c>
-      <c r="E12" t="s">
-        <v>29</v>
+        <v>5</v>
+      </c>
+      <c r="E12">
+        <v>5</v>
       </c>
       <c r="F12">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G12">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H12">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I12">
         <v>5</v>
       </c>
       <c r="J12">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K12">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L12">
-        <v>4</v>
-      </c>
-      <c r="M12" t="s">
-        <v>28</v>
+        <v>5</v>
+      </c>
+      <c r="M12">
+        <v>5</v>
       </c>
       <c r="N12">
         <v>4</v>
       </c>
       <c r="O12">
-        <v>4</v>
-      </c>
-      <c r="P12" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q12">
-        <v>5</v>
-      </c>
-      <c r="R12">
-        <v>4</v>
-      </c>
-      <c r="S12" t="s">
-        <v>26</v>
-      </c>
-      <c r="T12">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" t="str">
         <f>comment!A13</f>
-        <v>B072809</v>
-      </c>
-      <c r="B13" t="s">
-        <v>30</v>
+        <v>B023020</v>
+      </c>
+      <c r="B13">
+        <v>4</v>
       </c>
       <c r="C13">
         <v>4</v>
       </c>
       <c r="D13">
-        <v>4</v>
-      </c>
-      <c r="E13" t="s">
-        <v>29</v>
+        <v>3</v>
+      </c>
+      <c r="E13">
+        <v>4</v>
       </c>
       <c r="F13">
         <v>4</v>
       </c>
       <c r="G13">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I13">
         <v>4</v>
       </c>
       <c r="J13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L13">
         <v>4</v>
       </c>
-      <c r="M13" t="s">
-        <v>28</v>
+      <c r="M13">
+        <v>5</v>
       </c>
       <c r="N13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O13">
-        <v>4</v>
-      </c>
-      <c r="P13" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q13">
-        <v>4</v>
-      </c>
-      <c r="R13">
-        <v>4</v>
-      </c>
-      <c r="S13" t="s">
-        <v>26</v>
-      </c>
-      <c r="T13">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" t="str">
         <f>comment!A14</f>
-        <v>B038508</v>
-      </c>
-      <c r="B14" t="s">
-        <v>30</v>
+        <v>B072809</v>
+      </c>
+      <c r="B14">
+        <v>4</v>
       </c>
       <c r="C14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D14">
-        <v>3</v>
-      </c>
-      <c r="E14" t="s">
-        <v>29</v>
+        <v>4</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
       </c>
       <c r="F14">
         <v>4</v>
@@ -2327,13 +2238,13 @@
         <v>4</v>
       </c>
       <c r="H14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I14">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -2341,8 +2252,8 @@
       <c r="L14">
         <v>4</v>
       </c>
-      <c r="M14" t="s">
-        <v>28</v>
+      <c r="M14">
+        <v>4</v>
       </c>
       <c r="N14">
         <v>4</v>
@@ -2350,38 +2261,23 @@
       <c r="O14">
         <v>4</v>
       </c>
-      <c r="P14" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q14">
-        <v>4</v>
-      </c>
-      <c r="R14">
-        <v>3</v>
-      </c>
-      <c r="S14" t="s">
-        <v>26</v>
-      </c>
-      <c r="T14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" t="str">
         <f>comment!A15</f>
-        <v>B064282</v>
-      </c>
-      <c r="B15" t="s">
-        <v>30</v>
+        <v>B038508</v>
+      </c>
+      <c r="B15">
+        <v>5</v>
       </c>
       <c r="C15">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D15">
         <v>4</v>
       </c>
-      <c r="E15" t="s">
-        <v>29</v>
+      <c r="E15">
+        <v>4</v>
       </c>
       <c r="F15">
         <v>4</v>
@@ -2390,10 +2286,10 @@
         <v>4</v>
       </c>
       <c r="H15">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I15">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J15">
         <v>4</v>
@@ -2402,52 +2298,37 @@
         <v>4</v>
       </c>
       <c r="L15">
-        <v>5</v>
-      </c>
-      <c r="M15" t="s">
-        <v>28</v>
+        <v>4</v>
+      </c>
+      <c r="M15">
+        <v>4</v>
       </c>
       <c r="N15">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O15">
         <v>4</v>
       </c>
-      <c r="P15" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q15">
-        <v>5</v>
-      </c>
-      <c r="R15">
-        <v>3</v>
-      </c>
-      <c r="S15" t="s">
-        <v>26</v>
-      </c>
-      <c r="T15">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" t="str">
         <f>comment!A16</f>
-        <v>B072263</v>
-      </c>
-      <c r="B16" t="s">
-        <v>30</v>
+        <v>B064282</v>
+      </c>
+      <c r="B16">
+        <v>5</v>
       </c>
       <c r="C16">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D16">
         <v>4</v>
       </c>
-      <c r="E16" t="s">
-        <v>29</v>
+      <c r="E16">
+        <v>4</v>
       </c>
       <c r="F16">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G16">
         <v>4</v>
@@ -2459,7 +2340,7 @@
         <v>4</v>
       </c>
       <c r="J16">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K16">
         <v>4</v>
@@ -2467,38 +2348,23 @@
       <c r="L16">
         <v>4</v>
       </c>
-      <c r="M16" t="s">
-        <v>28</v>
+      <c r="M16">
+        <v>5</v>
       </c>
       <c r="N16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O16">
-        <v>3</v>
-      </c>
-      <c r="P16" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q16">
-        <v>4</v>
-      </c>
-      <c r="R16">
-        <v>3</v>
-      </c>
-      <c r="S16" t="s">
-        <v>26</v>
-      </c>
-      <c r="T16">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" t="str">
         <f>comment!A17</f>
-        <v>B027563</v>
-      </c>
-      <c r="B17" t="s">
-        <v>30</v>
+        <v>B072263</v>
+      </c>
+      <c r="B17">
+        <v>5</v>
       </c>
       <c r="C17">
         <v>4</v>
@@ -2506,20 +2372,20 @@
       <c r="D17">
         <v>3</v>
       </c>
-      <c r="E17" t="s">
-        <v>29</v>
+      <c r="E17">
+        <v>4</v>
       </c>
       <c r="F17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G17">
         <v>4</v>
       </c>
       <c r="H17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J17">
         <v>4</v>
@@ -2530,47 +2396,32 @@
       <c r="L17">
         <v>3</v>
       </c>
-      <c r="M17" t="s">
-        <v>28</v>
+      <c r="M17">
+        <v>4</v>
       </c>
       <c r="N17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O17">
         <v>3</v>
       </c>
-      <c r="P17" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q17">
-        <v>5</v>
-      </c>
-      <c r="R17">
-        <v>2</v>
-      </c>
-      <c r="S17" t="s">
-        <v>26</v>
-      </c>
-      <c r="T17">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" t="str">
         <f>comment!A18</f>
-        <v>B024112</v>
-      </c>
-      <c r="B18" t="s">
-        <v>30</v>
+        <v>B027563</v>
+      </c>
+      <c r="B18">
+        <v>4</v>
       </c>
       <c r="C18">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D18">
         <v>3</v>
       </c>
-      <c r="E18" t="s">
-        <v>29</v>
+      <c r="E18">
+        <v>4</v>
       </c>
       <c r="F18">
         <v>4</v>
@@ -2582,73 +2433,58 @@
         <v>4</v>
       </c>
       <c r="I18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J18">
         <v>3</v>
       </c>
       <c r="K18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L18">
-        <v>4</v>
-      </c>
-      <c r="M18" t="s">
-        <v>28</v>
+        <v>3</v>
+      </c>
+      <c r="M18">
+        <v>5</v>
       </c>
       <c r="N18">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O18">
         <v>4</v>
       </c>
-      <c r="P18" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q18">
-        <v>4</v>
-      </c>
-      <c r="R18">
-        <v>4</v>
-      </c>
-      <c r="S18" t="s">
-        <v>26</v>
-      </c>
-      <c r="T18">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" t="str">
         <f>comment!A19</f>
-        <v>B072373</v>
-      </c>
-      <c r="B19" t="s">
-        <v>30</v>
+        <v>B024112</v>
+      </c>
+      <c r="B19">
+        <v>4</v>
       </c>
       <c r="C19">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D19">
         <v>4</v>
       </c>
-      <c r="E19" t="s">
-        <v>29</v>
+      <c r="E19">
+        <v>3</v>
       </c>
       <c r="F19">
         <v>4</v>
       </c>
       <c r="G19">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H19">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I19">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K19">
         <v>4</v>
@@ -2656,8 +2492,8 @@
       <c r="L19">
         <v>4</v>
       </c>
-      <c r="M19" t="s">
-        <v>28</v>
+      <c r="M19">
+        <v>4</v>
       </c>
       <c r="N19">
         <v>4</v>
@@ -2665,38 +2501,23 @@
       <c r="O19">
         <v>4</v>
       </c>
-      <c r="P19" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q19">
-        <v>4</v>
-      </c>
-      <c r="R19">
-        <v>4</v>
-      </c>
-      <c r="S19" t="s">
-        <v>26</v>
-      </c>
-      <c r="T19">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" t="str">
         <f>comment!A20</f>
-        <v>B072399</v>
-      </c>
-      <c r="B20" t="s">
-        <v>30</v>
+        <v>B072373</v>
+      </c>
+      <c r="B20">
+        <v>5</v>
       </c>
       <c r="C20">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D20">
         <v>4</v>
       </c>
-      <c r="E20" t="s">
-        <v>29</v>
+      <c r="E20">
+        <v>4</v>
       </c>
       <c r="F20">
         <v>4</v>
@@ -2705,10 +2526,10 @@
         <v>4</v>
       </c>
       <c r="H20">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J20">
         <v>4</v>
@@ -2719,8 +2540,8 @@
       <c r="L20">
         <v>4</v>
       </c>
-      <c r="M20" t="s">
-        <v>28</v>
+      <c r="M20">
+        <v>4</v>
       </c>
       <c r="N20">
         <v>4</v>
@@ -2728,38 +2549,23 @@
       <c r="O20">
         <v>4</v>
       </c>
-      <c r="P20" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q20">
-        <v>4</v>
-      </c>
-      <c r="R20">
-        <v>3</v>
-      </c>
-      <c r="S20" t="s">
-        <v>26</v>
-      </c>
-      <c r="T20">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" t="str">
         <f>comment!A21</f>
-        <v>B038146</v>
-      </c>
-      <c r="B21" t="s">
-        <v>30</v>
+        <v>B072399</v>
+      </c>
+      <c r="B21">
+        <v>5</v>
       </c>
       <c r="C21">
         <v>4</v>
       </c>
       <c r="D21">
-        <v>3</v>
-      </c>
-      <c r="E21" t="s">
-        <v>29</v>
+        <v>4</v>
+      </c>
+      <c r="E21">
+        <v>4</v>
       </c>
       <c r="F21">
         <v>4</v>
@@ -2768,7 +2574,7 @@
         <v>3</v>
       </c>
       <c r="H21">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I21">
         <v>4</v>
@@ -2777,58 +2583,43 @@
         <v>4</v>
       </c>
       <c r="K21">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L21">
         <v>4</v>
       </c>
-      <c r="M21" t="s">
-        <v>28</v>
+      <c r="M21">
+        <v>4</v>
       </c>
       <c r="N21">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O21">
         <v>4</v>
       </c>
-      <c r="P21" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q21">
-        <v>4</v>
-      </c>
-      <c r="R21">
-        <v>4</v>
-      </c>
-      <c r="S21" t="s">
-        <v>26</v>
-      </c>
-      <c r="T21">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" t="str">
         <f>comment!A22</f>
-        <v>B039098</v>
-      </c>
-      <c r="B22" t="s">
-        <v>30</v>
+        <v>B038146</v>
+      </c>
+      <c r="B22">
+        <v>4</v>
       </c>
       <c r="C22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D22">
-        <v>3</v>
-      </c>
-      <c r="E22" t="s">
-        <v>29</v>
+        <v>4</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
       </c>
       <c r="F22">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G22">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H22">
         <v>4</v>
@@ -2837,16 +2628,16 @@
         <v>3</v>
       </c>
       <c r="J22">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K22">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L22">
-        <v>3</v>
-      </c>
-      <c r="M22" t="s">
-        <v>28</v>
+        <v>4</v>
+      </c>
+      <c r="M22">
+        <v>4</v>
       </c>
       <c r="N22">
         <v>4</v>
@@ -2854,101 +2645,71 @@
       <c r="O22">
         <v>3</v>
       </c>
-      <c r="P22" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q22">
-        <v>4</v>
-      </c>
-      <c r="R22">
-        <v>3</v>
-      </c>
-      <c r="S22" t="s">
-        <v>26</v>
-      </c>
-      <c r="T22">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" t="str">
         <f>comment!A23</f>
-        <v>B072730</v>
-      </c>
-      <c r="B23" t="s">
-        <v>30</v>
+        <v>B039098</v>
+      </c>
+      <c r="B23">
+        <v>4</v>
       </c>
       <c r="C23">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D23">
         <v>3</v>
       </c>
-      <c r="E23" t="s">
-        <v>29</v>
+      <c r="E23">
+        <v>3</v>
       </c>
       <c r="F23">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G23">
         <v>3</v>
       </c>
       <c r="H23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I23">
         <v>3</v>
       </c>
       <c r="J23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K23">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L23">
         <v>3</v>
       </c>
-      <c r="M23" t="s">
-        <v>28</v>
+      <c r="M23">
+        <v>4</v>
       </c>
       <c r="N23">
         <v>3</v>
       </c>
       <c r="O23">
-        <v>3</v>
-      </c>
-      <c r="P23" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q23">
-        <v>3</v>
-      </c>
-      <c r="R23">
-        <v>2</v>
-      </c>
-      <c r="S23" t="s">
-        <v>26</v>
-      </c>
-      <c r="T23">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" t="str">
         <f>comment!A24</f>
-        <v>B007635</v>
-      </c>
-      <c r="B24" t="s">
-        <v>30</v>
+        <v>B072730</v>
+      </c>
+      <c r="B24">
+        <v>4</v>
       </c>
       <c r="C24">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D24">
         <v>3</v>
       </c>
-      <c r="E24" t="s">
-        <v>29</v>
+      <c r="E24">
+        <v>3</v>
       </c>
       <c r="F24">
         <v>3</v>
@@ -2957,115 +2718,85 @@
         <v>3</v>
       </c>
       <c r="H24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>3</v>
       </c>
-      <c r="M24" t="s">
-        <v>28</v>
+      <c r="M24">
+        <v>3</v>
       </c>
       <c r="N24">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O24">
         <v>3</v>
       </c>
-      <c r="P24" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q24">
-        <v>3</v>
-      </c>
-      <c r="R24">
-        <v>3</v>
-      </c>
-      <c r="S24" t="s">
-        <v>26</v>
-      </c>
-      <c r="T24">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" t="str">
         <f>comment!A25</f>
-        <v>B066292</v>
-      </c>
-      <c r="B25" t="s">
-        <v>30</v>
+        <v>B007635</v>
+      </c>
+      <c r="B25">
+        <v>4</v>
       </c>
       <c r="C25">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D25">
-        <v>4</v>
-      </c>
-      <c r="E25" t="s">
-        <v>29</v>
+        <v>3</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
       </c>
       <c r="F25">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G25">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H25">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I25">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J25">
         <v>3</v>
       </c>
       <c r="K25">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L25">
         <v>3</v>
       </c>
-      <c r="M25" t="s">
-        <v>28</v>
+      <c r="M25">
+        <v>3</v>
       </c>
       <c r="N25">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O25">
         <v>4</v>
       </c>
-      <c r="P25" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q25">
-        <v>5</v>
-      </c>
-      <c r="R25">
-        <v>4</v>
-      </c>
-      <c r="S25" t="s">
-        <v>26</v>
-      </c>
-      <c r="T25">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
+    </row>
+    <row r="26" spans="1:15">
       <c r="A26" t="str">
         <f>comment!A26</f>
-        <v>B072765</v>
-      </c>
-      <c r="B26" t="s">
-        <v>30</v>
+        <v>B066292</v>
+      </c>
+      <c r="B26">
+        <v>5</v>
       </c>
       <c r="C26">
         <v>4</v>
@@ -3073,8 +2804,8 @@
       <c r="D26">
         <v>4</v>
       </c>
-      <c r="E26" t="s">
-        <v>29</v>
+      <c r="E26">
+        <v>4</v>
       </c>
       <c r="F26">
         <v>4</v>
@@ -3083,7 +2814,7 @@
         <v>4</v>
       </c>
       <c r="H26">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I26">
         <v>3</v>
@@ -3092,13 +2823,13 @@
         <v>3</v>
       </c>
       <c r="K26">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L26">
-        <v>3</v>
-      </c>
-      <c r="M26" t="s">
-        <v>28</v>
+        <v>4</v>
+      </c>
+      <c r="M26">
+        <v>5</v>
       </c>
       <c r="N26">
         <v>4</v>
@@ -3106,29 +2837,14 @@
       <c r="O26">
         <v>4</v>
       </c>
-      <c r="P26" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q26">
-        <v>5</v>
-      </c>
-      <c r="R26">
-        <v>4</v>
-      </c>
-      <c r="S26" t="s">
-        <v>26</v>
-      </c>
-      <c r="T26">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20">
+    </row>
+    <row r="27" spans="1:15">
       <c r="A27" t="str">
         <f>comment!A27</f>
-        <v>B005028</v>
-      </c>
-      <c r="B27" t="s">
-        <v>30</v>
+        <v>B072765</v>
+      </c>
+      <c r="B27">
+        <v>4</v>
       </c>
       <c r="C27">
         <v>4</v>
@@ -3136,77 +2852,62 @@
       <c r="D27">
         <v>4</v>
       </c>
-      <c r="E27" t="s">
-        <v>29</v>
+      <c r="E27">
+        <v>4</v>
       </c>
       <c r="F27">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G27">
         <v>3</v>
       </c>
       <c r="H27">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I27">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J27">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K27">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L27">
         <v>4</v>
       </c>
-      <c r="M27" t="s">
-        <v>28</v>
+      <c r="M27">
+        <v>5</v>
       </c>
       <c r="N27">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O27">
         <v>4</v>
       </c>
-      <c r="P27" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q27">
-        <v>4</v>
-      </c>
-      <c r="R27">
-        <v>4</v>
-      </c>
-      <c r="S27" t="s">
-        <v>26</v>
-      </c>
-      <c r="T27">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20">
+    </row>
+    <row r="28" spans="1:15">
       <c r="A28" t="str">
         <f>comment!A28</f>
-        <v>B024590</v>
-      </c>
-      <c r="B28" t="s">
-        <v>30</v>
+        <v>B005028</v>
+      </c>
+      <c r="B28">
+        <v>4</v>
       </c>
       <c r="C28">
         <v>4</v>
       </c>
       <c r="D28">
-        <v>4</v>
-      </c>
-      <c r="E28" t="s">
-        <v>29</v>
+        <v>3</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
       </c>
       <c r="F28">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G28">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H28">
         <v>4</v>
@@ -3215,46 +2916,31 @@
         <v>3</v>
       </c>
       <c r="J28">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K28">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L28">
         <v>4</v>
       </c>
-      <c r="M28" t="s">
-        <v>28</v>
+      <c r="M28">
+        <v>4</v>
       </c>
       <c r="N28">
         <v>4</v>
       </c>
       <c r="O28">
-        <v>3</v>
-      </c>
-      <c r="P28" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q28">
-        <v>5</v>
-      </c>
-      <c r="R28">
-        <v>3</v>
-      </c>
-      <c r="S28" t="s">
-        <v>26</v>
-      </c>
-      <c r="T28">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
       <c r="A29" t="str">
         <f>comment!A29</f>
-        <v>B034365</v>
-      </c>
-      <c r="B29" t="s">
-        <v>30</v>
+        <v>B024590</v>
+      </c>
+      <c r="B29">
+        <v>4</v>
       </c>
       <c r="C29">
         <v>4</v>
@@ -3262,71 +2948,56 @@
       <c r="D29">
         <v>3</v>
       </c>
-      <c r="E29" t="s">
-        <v>29</v>
+      <c r="E29">
+        <v>3</v>
       </c>
       <c r="F29">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G29">
         <v>3</v>
       </c>
       <c r="H29">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I29">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J29">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K29">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L29">
         <v>3</v>
       </c>
-      <c r="M29" t="s">
-        <v>28</v>
+      <c r="M29">
+        <v>5</v>
       </c>
       <c r="N29">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O29">
-        <v>3</v>
-      </c>
-      <c r="P29" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q29">
-        <v>4</v>
-      </c>
-      <c r="R29">
-        <v>4</v>
-      </c>
-      <c r="S29" t="s">
-        <v>26</v>
-      </c>
-      <c r="T29">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
       <c r="A30" t="str">
         <f>comment!A30</f>
-        <v>B024091</v>
-      </c>
-      <c r="B30" t="s">
-        <v>30</v>
+        <v>B034365</v>
+      </c>
+      <c r="B30">
+        <v>4</v>
       </c>
       <c r="C30">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D30">
-        <v>4</v>
-      </c>
-      <c r="E30" t="s">
-        <v>29</v>
+        <v>3</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
       </c>
       <c r="F30">
         <v>4</v>
@@ -3335,10 +3006,10 @@
         <v>4</v>
       </c>
       <c r="H30">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I30">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J30">
         <v>3</v>
@@ -3347,10 +3018,10 @@
         <v>4</v>
       </c>
       <c r="L30">
-        <v>4</v>
-      </c>
-      <c r="M30" t="s">
-        <v>28</v>
+        <v>3</v>
+      </c>
+      <c r="M30">
+        <v>4</v>
       </c>
       <c r="N30">
         <v>4</v>
@@ -3358,29 +3029,14 @@
       <c r="O30">
         <v>4</v>
       </c>
-      <c r="P30" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q30">
-        <v>4</v>
-      </c>
-      <c r="R30">
-        <v>4</v>
-      </c>
-      <c r="S30" t="s">
-        <v>26</v>
-      </c>
-      <c r="T30">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20">
+    </row>
+    <row r="31" spans="1:15">
       <c r="A31" t="str">
         <f>comment!A31</f>
-        <v>B035029</v>
-      </c>
-      <c r="B31" t="s">
-        <v>30</v>
+        <v>B024091</v>
+      </c>
+      <c r="B31">
+        <v>5</v>
       </c>
       <c r="C31">
         <v>4</v>
@@ -3388,367 +3044,325 @@
       <c r="D31">
         <v>4</v>
       </c>
-      <c r="E31" t="s">
-        <v>29</v>
+      <c r="E31">
+        <v>4</v>
       </c>
       <c r="F31">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G31">
         <v>4</v>
       </c>
       <c r="H31">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I31">
         <v>4</v>
       </c>
       <c r="J31">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K31">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L31">
-        <v>3</v>
-      </c>
-      <c r="M31" t="s">
-        <v>28</v>
+        <v>4</v>
+      </c>
+      <c r="M31">
+        <v>4</v>
       </c>
       <c r="N31">
         <v>4</v>
       </c>
       <c r="O31">
-        <v>4</v>
-      </c>
-      <c r="P31" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q31">
-        <v>4</v>
-      </c>
-      <c r="R31">
-        <v>4</v>
-      </c>
-      <c r="S31" t="s">
-        <v>26</v>
-      </c>
-      <c r="T31">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
       <c r="A32" t="str">
         <f>comment!A32</f>
-        <v>B037812</v>
-      </c>
-      <c r="B32" t="s">
-        <v>30</v>
+        <v>B035029</v>
+      </c>
+      <c r="B32">
+        <v>4</v>
       </c>
       <c r="C32">
         <v>4</v>
       </c>
       <c r="D32">
-        <v>3</v>
-      </c>
-      <c r="E32" t="s">
-        <v>29</v>
+        <v>5</v>
+      </c>
+      <c r="E32">
+        <v>4</v>
       </c>
       <c r="F32">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G32">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I32">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J32">
         <v>3</v>
       </c>
       <c r="K32">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L32">
         <v>4</v>
       </c>
-      <c r="M32" t="s">
-        <v>28</v>
+      <c r="M32">
+        <v>4</v>
       </c>
       <c r="N32">
         <v>4</v>
       </c>
       <c r="O32">
-        <v>4</v>
-      </c>
-      <c r="P32" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q32">
-        <v>4</v>
-      </c>
-      <c r="R32">
-        <v>3</v>
-      </c>
-      <c r="S32" t="s">
-        <v>26</v>
-      </c>
-      <c r="T32">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15">
       <c r="A33" t="str">
         <f>comment!A33</f>
-        <v>B028670</v>
-      </c>
-      <c r="B33" t="s">
-        <v>30</v>
+        <v>B037812</v>
+      </c>
+      <c r="B33">
+        <v>4</v>
       </c>
       <c r="C33">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D33">
         <v>3</v>
       </c>
-      <c r="E33" t="s">
-        <v>29</v>
+      <c r="E33">
+        <v>3</v>
       </c>
       <c r="F33">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G33">
         <v>4</v>
       </c>
       <c r="H33">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I33">
         <v>3</v>
       </c>
       <c r="J33">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K33">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L33">
         <v>4</v>
       </c>
-      <c r="M33" t="s">
-        <v>28</v>
+      <c r="M33">
+        <v>4</v>
       </c>
       <c r="N33">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O33">
         <v>4</v>
       </c>
-      <c r="P33" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q33">
-        <v>4</v>
-      </c>
-      <c r="R33">
-        <v>2</v>
-      </c>
-      <c r="S33" t="s">
-        <v>26</v>
-      </c>
-      <c r="T33">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:20">
+    </row>
+    <row r="34" spans="1:15">
       <c r="A34" t="str">
         <f>comment!A34</f>
-        <v>B072799</v>
-      </c>
-      <c r="B34" t="s">
-        <v>30</v>
+        <v>B028670</v>
+      </c>
+      <c r="B34">
+        <v>5</v>
       </c>
       <c r="C34">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D34">
-        <v>3</v>
-      </c>
-      <c r="E34" t="s">
-        <v>29</v>
+        <v>4</v>
+      </c>
+      <c r="E34">
+        <v>4</v>
       </c>
       <c r="F34">
         <v>4</v>
       </c>
       <c r="G34">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H34">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I34">
         <v>3</v>
       </c>
       <c r="J34">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K34">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L34">
         <v>4</v>
       </c>
-      <c r="M34" t="s">
-        <v>28</v>
+      <c r="M34">
+        <v>4</v>
       </c>
       <c r="N34">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O34">
-        <v>4</v>
-      </c>
-      <c r="P34" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q34">
-        <v>4</v>
-      </c>
-      <c r="R34">
-        <v>4</v>
-      </c>
-      <c r="S34" t="s">
-        <v>26</v>
-      </c>
-      <c r="T34">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35" spans="1:20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15">
       <c r="A35" t="str">
         <f>comment!A35</f>
-        <v>B072582</v>
-      </c>
-      <c r="B35" t="s">
-        <v>30</v>
+        <v>B072799</v>
+      </c>
+      <c r="B35">
+        <v>5</v>
       </c>
       <c r="C35">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D35">
-        <v>3</v>
-      </c>
-      <c r="E35" t="s">
-        <v>29</v>
+        <v>4</v>
+      </c>
+      <c r="E35">
+        <v>4</v>
       </c>
       <c r="F35">
         <v>4</v>
       </c>
       <c r="G35">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H35">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I35">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J35">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K35">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L35">
-        <v>3</v>
-      </c>
-      <c r="M35" t="s">
-        <v>28</v>
+        <v>4</v>
+      </c>
+      <c r="M35">
+        <v>4</v>
       </c>
       <c r="N35">
         <v>4</v>
       </c>
       <c r="O35">
-        <v>3</v>
-      </c>
-      <c r="P35" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q35">
-        <v>5</v>
-      </c>
-      <c r="R35">
-        <v>4</v>
-      </c>
-      <c r="S35" t="s">
-        <v>26</v>
-      </c>
-      <c r="T35">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15">
       <c r="A36" t="str">
         <f>comment!A36</f>
+        <v>B072582</v>
+      </c>
+      <c r="B36">
+        <v>4</v>
+      </c>
+      <c r="C36">
+        <v>3</v>
+      </c>
+      <c r="D36">
+        <v>4</v>
+      </c>
+      <c r="E36">
+        <v>4</v>
+      </c>
+      <c r="F36">
+        <v>4</v>
+      </c>
+      <c r="G36">
+        <v>4</v>
+      </c>
+      <c r="H36">
+        <v>3</v>
+      </c>
+      <c r="I36">
+        <v>3</v>
+      </c>
+      <c r="J36">
+        <v>3</v>
+      </c>
+      <c r="K36">
+        <v>4</v>
+      </c>
+      <c r="L36">
+        <v>3</v>
+      </c>
+      <c r="M36">
+        <v>5</v>
+      </c>
+      <c r="N36">
+        <v>4</v>
+      </c>
+      <c r="O36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15">
+      <c r="A37" t="str">
+        <f>comment!A37</f>
         <v>B072761</v>
       </c>
-      <c r="B36" t="s">
-        <v>30</v>
-      </c>
-      <c r="C36">
-        <v>4</v>
-      </c>
-      <c r="D36">
-        <v>4</v>
-      </c>
-      <c r="E36" t="s">
-        <v>29</v>
-      </c>
-      <c r="F36">
-        <v>5</v>
-      </c>
-      <c r="G36">
-        <v>4</v>
-      </c>
-      <c r="H36">
-        <v>4</v>
-      </c>
-      <c r="I36">
-        <v>3</v>
-      </c>
-      <c r="J36">
-        <v>4</v>
-      </c>
-      <c r="K36">
-        <v>3</v>
-      </c>
-      <c r="L36">
-        <v>4</v>
-      </c>
-      <c r="M36" t="s">
-        <v>28</v>
-      </c>
-      <c r="N36">
-        <v>4</v>
-      </c>
-      <c r="O36">
-        <v>4</v>
-      </c>
-      <c r="P36" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q36">
-        <v>5</v>
-      </c>
-      <c r="R36">
-        <v>4</v>
-      </c>
-      <c r="S36" t="s">
-        <v>26</v>
-      </c>
-      <c r="T36">
+      <c r="B37">
+        <v>4</v>
+      </c>
+      <c r="C37">
+        <v>4</v>
+      </c>
+      <c r="D37">
+        <v>5</v>
+      </c>
+      <c r="E37">
+        <v>4</v>
+      </c>
+      <c r="F37">
+        <v>4</v>
+      </c>
+      <c r="G37">
+        <v>3</v>
+      </c>
+      <c r="H37">
+        <v>4</v>
+      </c>
+      <c r="I37">
+        <v>3</v>
+      </c>
+      <c r="J37">
+        <v>4</v>
+      </c>
+      <c r="K37">
+        <v>4</v>
+      </c>
+      <c r="L37">
+        <v>4</v>
+      </c>
+      <c r="M37">
+        <v>5</v>
+      </c>
+      <c r="N37">
+        <v>4</v>
+      </c>
+      <c r="O37">
         <v>4</v>
       </c>
     </row>
@@ -3766,171 +3380,168 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W36"/>
+  <dimension ref="A1:W37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P34" sqref="P34"/>
+      <selection activeCell="W1" sqref="W1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:23">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>135</v>
       </c>
       <c r="B1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I1" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="J1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="P1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Q1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="R1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="S1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="T1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="U1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="V1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="W1" t="s">
-        <v>4</v>
+        <v>143</v>
       </c>
     </row>
     <row r="2" spans="1:23">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>136</v>
       </c>
       <c r="B2">
-        <v>4</v>
+        <v>0.6</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>0.4</v>
       </c>
       <c r="D2">
-        <v>3</v>
+        <v>0.4</v>
       </c>
       <c r="E2">
-        <v>5</v>
+        <v>0.4</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="H2">
-        <v>3</v>
+        <v>0.4</v>
       </c>
       <c r="I2">
-        <v>4</v>
+        <v>0.6</v>
       </c>
       <c r="J2">
-        <v>3</v>
+        <v>0.8</v>
       </c>
       <c r="K2">
-        <v>5</v>
+        <v>0.8</v>
       </c>
       <c r="L2">
-        <v>5</v>
+        <v>0.8</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="N2">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="O2">
-        <v>3</v>
+        <v>0.8</v>
       </c>
       <c r="P2">
-        <v>5</v>
+        <v>1.2</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="R2">
-        <v>5</v>
+        <v>1.2</v>
       </c>
       <c r="S2">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="T2">
         <v>1</v>
       </c>
       <c r="U2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="V2">
-        <v>1</v>
-      </c>
-      <c r="W2" t="s">
-        <v>2</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="3" spans="1:23">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -3939,66 +3550,66 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I3">
         <v>4</v>
       </c>
       <c r="J3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L3">
         <v>5</v>
       </c>
       <c r="M3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="R3">
         <v>5</v>
       </c>
       <c r="S3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="T3">
         <v>1</v>
       </c>
       <c r="U3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="V3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="W3" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:23">
       <c r="A4" t="s">
-        <v>75</v>
+        <v>1</v>
       </c>
       <c r="B4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -4007,40 +3618,40 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S4">
         <v>1</v>
@@ -4049,57 +3660,57 @@
         <v>1</v>
       </c>
       <c r="U4">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="V4">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="W4" t="s">
-        <v>76</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:23">
       <c r="A5" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>3</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N5">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -4108,10 +3719,10 @@
         <v>5</v>
       </c>
       <c r="Q5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S5">
         <v>1</v>
@@ -4126,15 +3737,15 @@
         <v>1</v>
       </c>
       <c r="W5" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:23">
       <c r="A6" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="B6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -4143,46 +3754,46 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F6">
         <v>2</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="K6">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O6">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="P6">
         <v>5</v>
       </c>
       <c r="Q6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="S6">
         <v>1</v>
@@ -4197,12 +3808,12 @@
         <v>1</v>
       </c>
       <c r="W6" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:23">
       <c r="A7" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="B7">
         <v>3</v>
@@ -4211,25 +3822,25 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K7">
         <v>5</v>
@@ -4238,28 +3849,28 @@
         <v>5</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q7">
         <v>3</v>
       </c>
       <c r="R7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U7">
         <v>1</v>
@@ -4268,21 +3879,21 @@
         <v>1</v>
       </c>
       <c r="W7" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:23">
       <c r="A8" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C8">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -4291,46 +3902,46 @@
         <v>0</v>
       </c>
       <c r="G8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L8">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M8">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N8">
         <v>5</v>
       </c>
       <c r="O8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U8">
         <v>1</v>
@@ -4339,60 +3950,60 @@
         <v>1</v>
       </c>
       <c r="W8" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:23">
       <c r="A9" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="B9">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C9">
         <v>5</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I9">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J9">
         <v>1</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N9">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R9">
         <v>1</v>
@@ -4404,21 +4015,21 @@
         <v>1</v>
       </c>
       <c r="U9">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="V9">
         <v>1</v>
       </c>
       <c r="W9" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:23">
       <c r="A10" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C10">
         <v>5</v>
@@ -4430,43 +4041,43 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J10">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K10">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q10">
         <v>1</v>
       </c>
       <c r="R10">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="S10">
         <v>1</v>
@@ -4481,83 +4092,83 @@
         <v>1</v>
       </c>
       <c r="W10" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:23">
       <c r="A11" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="B11">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D11">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H11">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L11">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N11">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q11">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R11">
+        <v>5</v>
+      </c>
+      <c r="S11">
+        <v>1</v>
+      </c>
+      <c r="T11">
+        <v>1</v>
+      </c>
+      <c r="U11">
         <v>6</v>
       </c>
-      <c r="S11">
-        <v>4</v>
-      </c>
-      <c r="T11">
-        <v>4</v>
-      </c>
-      <c r="U11">
-        <v>1</v>
-      </c>
       <c r="V11">
         <v>1</v>
       </c>
       <c r="W11" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:23">
       <c r="A12" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="B12">
         <v>5</v>
@@ -4569,52 +4180,52 @@
         <v>5</v>
       </c>
       <c r="E12">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H12">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M12">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q12">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R12">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="S12">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="T12">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="U12">
         <v>1</v>
@@ -4623,66 +4234,66 @@
         <v>1</v>
       </c>
       <c r="W12" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:23">
       <c r="A13" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="B13">
         <v>5</v>
       </c>
       <c r="C13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D13">
         <v>5</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J13">
         <v>4</v>
       </c>
       <c r="K13">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L13">
         <v>4</v>
       </c>
       <c r="M13">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N13">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R13">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S13">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="T13">
         <v>1</v>
@@ -4694,60 +4305,60 @@
         <v>1</v>
       </c>
       <c r="W13" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:23">
       <c r="A14" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="B14">
         <v>5</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D14">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E14">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14">
         <v>3</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J14">
         <v>4</v>
       </c>
       <c r="K14">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q14">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R14">
         <v>4</v>
@@ -4759,69 +4370,69 @@
         <v>1</v>
       </c>
       <c r="U14">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="V14">
         <v>1</v>
       </c>
       <c r="W14" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:23">
       <c r="A15" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="B15">
         <v>5</v>
       </c>
       <c r="C15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D15">
         <v>4</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H15">
         <v>2</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J15">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K15">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N15">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q15">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="R15">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S15">
         <v>1</v>
@@ -4836,33 +4447,33 @@
         <v>1</v>
       </c>
       <c r="W15" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
     </row>
     <row r="16" spans="1:23">
       <c r="A16" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="B16">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D16">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E16">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F16">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G16">
         <v>4</v>
       </c>
       <c r="H16">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -4871,13 +4482,13 @@
         <v>5</v>
       </c>
       <c r="K16">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N16">
         <v>4</v>
@@ -4892,7 +4503,7 @@
         <v>3</v>
       </c>
       <c r="R16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S16">
         <v>1</v>
@@ -4901,101 +4512,101 @@
         <v>1</v>
       </c>
       <c r="U16">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="V16">
         <v>1</v>
       </c>
       <c r="W16" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17" spans="1:23">
       <c r="A17" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="B17">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G17">
         <v>4</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R17">
         <v>1</v>
       </c>
       <c r="S17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T17">
         <v>1</v>
       </c>
       <c r="U17">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="V17">
         <v>1</v>
       </c>
       <c r="W17" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:23">
       <c r="A18" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="B18">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D18">
         <v>4</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -5004,40 +4615,40 @@
         <v>4</v>
       </c>
       <c r="H18">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I18">
         <v>2</v>
       </c>
       <c r="J18">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K18">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>3</v>
       </c>
       <c r="M18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R18">
         <v>1</v>
       </c>
       <c r="S18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T18">
         <v>1</v>
@@ -5049,122 +4660,122 @@
         <v>1</v>
       </c>
       <c r="W18" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
     </row>
     <row r="19" spans="1:23">
       <c r="A19" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="B19">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C19">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I19">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J19">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="K19">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L19">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N19">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P19">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q19">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="R19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S19">
+        <v>1</v>
+      </c>
+      <c r="T19">
+        <v>1</v>
+      </c>
+      <c r="U19">
         <v>6</v>
       </c>
-      <c r="T19">
-        <v>2</v>
-      </c>
-      <c r="U19">
-        <v>1</v>
-      </c>
       <c r="V19">
         <v>1</v>
       </c>
       <c r="W19" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
     </row>
     <row r="20" spans="1:23">
       <c r="A20" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D20">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G20">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H20">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J20">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K20">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L20">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N20">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -5173,16 +4784,16 @@
         <v>5</v>
       </c>
       <c r="Q20">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R20">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="S20">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="T20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U20">
         <v>1</v>
@@ -5191,63 +4802,63 @@
         <v>1</v>
       </c>
       <c r="W20" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21" spans="1:23">
       <c r="A21" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="B21">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G21">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I21">
         <v>3</v>
       </c>
       <c r="J21">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K21">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M21">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N21">
         <v>4</v>
       </c>
       <c r="O21">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q21">
         <v>3</v>
       </c>
       <c r="R21">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="S21">
         <v>1</v>
@@ -5262,63 +4873,63 @@
         <v>1</v>
       </c>
       <c r="W21" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="22" spans="1:23">
       <c r="A22" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="B22">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J22">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K22">
         <v>5</v>
       </c>
       <c r="L22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N22">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S22">
         <v>1</v>
@@ -5327,69 +4938,69 @@
         <v>1</v>
       </c>
       <c r="U22">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="V22">
         <v>1</v>
       </c>
       <c r="W22" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:23">
       <c r="A23" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="B23">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G23">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K23">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L23">
         <v>2</v>
       </c>
       <c r="M23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R23">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="S23">
         <v>1</v>
@@ -5404,12 +5015,12 @@
         <v>1</v>
       </c>
       <c r="W23" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
     </row>
     <row r="24" spans="1:23">
       <c r="A24" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="B24">
         <v>4</v>
@@ -5418,49 +5029,49 @@
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J24">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M24">
         <v>1</v>
       </c>
       <c r="N24">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R24">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S24">
         <v>1</v>
@@ -5475,51 +5086,51 @@
         <v>1</v>
       </c>
       <c r="W24" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
     </row>
     <row r="25" spans="1:23">
       <c r="A25" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="B25">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C25">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D25">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E25">
         <v>2</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J25">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L25">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N25">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O25">
         <v>0</v>
@@ -5528,7 +5139,7 @@
         <v>1</v>
       </c>
       <c r="Q25">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="R25">
         <v>2</v>
@@ -5537,60 +5148,60 @@
         <v>1</v>
       </c>
       <c r="T25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U25">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="V25">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="W25" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
     </row>
     <row r="26" spans="1:23">
       <c r="A26" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="B26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D26">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E26">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F26">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G26">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J26">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K26">
         <v>2</v>
       </c>
       <c r="L26">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M26">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N26">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O26">
         <v>0</v>
@@ -5599,81 +5210,81 @@
         <v>1</v>
       </c>
       <c r="Q26">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R26">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="S26">
         <v>1</v>
       </c>
       <c r="T26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U26">
         <v>1</v>
       </c>
       <c r="V26">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="W26" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
     </row>
     <row r="27" spans="1:23">
       <c r="A27" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="B27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C27">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G27">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H27">
         <v>0</v>
       </c>
       <c r="I27">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J27">
         <v>4</v>
       </c>
       <c r="K27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L27">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M27">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N27">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O27">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q27">
         <v>2</v>
       </c>
       <c r="R27">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S27">
         <v>1</v>
@@ -5682,51 +5293,51 @@
         <v>1</v>
       </c>
       <c r="U27">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="V27">
         <v>1</v>
       </c>
       <c r="W27" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="28" spans="1:23">
       <c r="A28" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="B28">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D28">
         <v>0</v>
       </c>
       <c r="E28">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H28">
         <v>0</v>
       </c>
       <c r="I28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J28">
         <v>4</v>
       </c>
       <c r="K28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L28">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M28">
         <v>5</v>
@@ -5735,13 +5346,13 @@
         <v>4</v>
       </c>
       <c r="O28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P28">
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R28">
         <v>4</v>
@@ -5759,24 +5370,24 @@
         <v>1</v>
       </c>
       <c r="W28" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
     </row>
     <row r="29" spans="1:23">
       <c r="A29" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="B29">
         <v>5</v>
       </c>
       <c r="C29">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="D29">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F29">
         <v>1</v>
@@ -5788,10 +5399,10 @@
         <v>0</v>
       </c>
       <c r="I29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J29">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -5800,10 +5411,10 @@
         <v>0</v>
       </c>
       <c r="M29">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N29">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O29">
         <v>3</v>
@@ -5812,10 +5423,10 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R29">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S29">
         <v>1</v>
@@ -5830,36 +5441,36 @@
         <v>1</v>
       </c>
       <c r="W29" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
     </row>
     <row r="30" spans="1:23">
       <c r="A30" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="B30">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C30">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D30">
         <v>5</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G30">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H30">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J30">
         <v>5</v>
@@ -5871,164 +5482,164 @@
         <v>0</v>
       </c>
       <c r="M30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N30">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P30">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R30">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="S30">
         <v>1</v>
       </c>
       <c r="T30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U30">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="V30">
         <v>1</v>
       </c>
       <c r="W30" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
     </row>
     <row r="31" spans="1:23">
       <c r="A31" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="B31">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C31">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D31">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F31">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G31">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H31">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I31">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J31">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="K31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N31">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P31">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="R31">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S31">
         <v>1</v>
       </c>
       <c r="T31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U31">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="V31">
         <v>1</v>
       </c>
       <c r="W31" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
     </row>
     <row r="32" spans="1:23">
       <c r="A32" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="B32">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C32">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F32">
         <v>0</v>
       </c>
       <c r="G32">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I32">
         <v>0</v>
       </c>
       <c r="J32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M32">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N32">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O32">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P32">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R32">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S32">
         <v>1</v>
@@ -6037,54 +5648,54 @@
         <v>1</v>
       </c>
       <c r="U32">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="V32">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="W32" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
     </row>
     <row r="33" spans="1:23">
       <c r="A33" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="B33">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C33">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F33">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G33">
         <v>5</v>
       </c>
       <c r="H33">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I33">
         <v>0</v>
       </c>
       <c r="J33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K33">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L33">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M33">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N33">
         <v>2</v>
@@ -6093,10 +5704,10 @@
         <v>0</v>
       </c>
       <c r="P33">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R33">
         <v>5</v>
@@ -6105,54 +5716,54 @@
         <v>1</v>
       </c>
       <c r="T33">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="U33">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="V33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="W33" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
     </row>
     <row r="34" spans="1:23">
       <c r="A34" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="B34">
         <v>5</v>
       </c>
       <c r="C34">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F34">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G34">
         <v>5</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I34">
         <v>0</v>
       </c>
       <c r="J34">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K34">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L34">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M34">
         <v>2</v>
@@ -6164,155 +5775,155 @@
         <v>0</v>
       </c>
       <c r="P34">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="Q34">
         <v>1</v>
       </c>
       <c r="R34">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S34">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T34">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="U34">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="V34">
         <v>1</v>
       </c>
       <c r="W34" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
     </row>
     <row r="35" spans="1:23">
       <c r="A35" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="B35">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F35">
         <v>0</v>
       </c>
       <c r="G35">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I35">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J35">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K35">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L35">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M35">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N35">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O35">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P35">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R35">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T35">
         <v>1</v>
       </c>
       <c r="U35">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V35">
         <v>1</v>
       </c>
       <c r="W35" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
     </row>
     <row r="36" spans="1:23">
       <c r="A36" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="B36">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C36">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E36">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F36">
         <v>0</v>
       </c>
       <c r="G36">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I36">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J36">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K36">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L36">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M36">
         <v>0</v>
       </c>
       <c r="N36">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P36">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q36">
         <v>2</v>
       </c>
       <c r="R36">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S36">
         <v>1</v>
@@ -6321,13 +5932,84 @@
         <v>1</v>
       </c>
       <c r="U36">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V36">
         <v>1</v>
       </c>
       <c r="W36" t="s">
-        <v>141</v>
+        <v>134</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23">
+      <c r="A37" t="s">
+        <v>127</v>
+      </c>
+      <c r="B37">
+        <v>5</v>
+      </c>
+      <c r="C37">
+        <v>5</v>
+      </c>
+      <c r="D37">
+        <v>3</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>5</v>
+      </c>
+      <c r="H37">
+        <v>1</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>5</v>
+      </c>
+      <c r="K37">
+        <v>4</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <v>3</v>
+      </c>
+      <c r="O37">
+        <v>1</v>
+      </c>
+      <c r="P37">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>2</v>
+      </c>
+      <c r="R37">
+        <v>4</v>
+      </c>
+      <c r="S37">
+        <v>1</v>
+      </c>
+      <c r="T37">
+        <v>1</v>
+      </c>
+      <c r="U37">
+        <v>3</v>
+      </c>
+      <c r="V37">
+        <v>1</v>
+      </c>
+      <c r="W37" t="s">
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -6344,299 +6026,182 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U2"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:21">
-      <c r="A1">
-        <v>0.5</v>
-      </c>
-      <c r="B1">
-        <v>0.5</v>
-      </c>
-      <c r="C1">
-        <v>1</v>
-      </c>
-      <c r="D1">
-        <v>0.5</v>
-      </c>
-      <c r="E1">
-        <v>0.5</v>
-      </c>
-      <c r="F1">
-        <v>0.5</v>
-      </c>
-      <c r="G1">
-        <v>1</v>
-      </c>
-      <c r="H1">
-        <v>0.5</v>
-      </c>
-      <c r="I1">
-        <v>0.5</v>
-      </c>
-      <c r="J1">
-        <v>0.5</v>
-      </c>
-      <c r="K1">
-        <v>0.5</v>
-      </c>
-      <c r="L1">
-        <v>0.5</v>
-      </c>
-      <c r="M1">
-        <v>0.5</v>
-      </c>
-      <c r="N1">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21">
-      <c r="A2">
-        <v>0.6</v>
-      </c>
-      <c r="B2">
-        <v>0.4</v>
-      </c>
-      <c r="C2">
-        <v>0.4</v>
-      </c>
-      <c r="D2">
-        <v>0.4</v>
-      </c>
-      <c r="E2">
-        <v>0.4</v>
-      </c>
-      <c r="F2">
-        <v>0.4</v>
-      </c>
-      <c r="G2">
-        <v>0.4</v>
-      </c>
-      <c r="H2">
-        <v>0.6</v>
-      </c>
-      <c r="I2">
-        <v>0.8</v>
-      </c>
-      <c r="J2">
-        <v>0.8</v>
-      </c>
-      <c r="K2">
-        <v>0.8</v>
-      </c>
-      <c r="L2">
-        <v>0.8</v>
-      </c>
-      <c r="M2">
-        <v>0.8</v>
-      </c>
-      <c r="N2">
-        <v>0.8</v>
-      </c>
-      <c r="O2">
-        <v>1.2</v>
-      </c>
-      <c r="P2">
-        <v>1.2</v>
-      </c>
-      <c r="Q2">
-        <v>1.2</v>
-      </c>
-      <c r="R2">
-        <v>1</v>
-      </c>
-      <c r="S2">
-        <v>1</v>
-      </c>
-      <c r="T2">
-        <v>0.5</v>
-      </c>
-      <c r="U2">
-        <v>0.5</v>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" t="s">
+        <v>139</v>
+      </c>
+      <c r="C4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" t="s">
+        <v>140</v>
+      </c>
+      <c r="C12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" t="s">
+        <v>141</v>
+      </c>
+      <c r="C15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" t="s">
+        <v>142</v>
+      </c>
+      <c r="C18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>70</v>
-      </c>
-      <c r="B5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>68</v>
-      </c>
-      <c r="B6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>66</v>
-      </c>
-      <c r="B7" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>64</v>
-      </c>
-      <c r="B8" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B9" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B10" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>58</v>
-      </c>
-      <c r="B11" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>48</v>
-      </c>
-      <c r="B12" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>56</v>
-      </c>
-      <c r="B13" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>54</v>
-      </c>
-      <c r="B14" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>48</v>
-      </c>
-      <c r="B15" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="s">
-        <v>52</v>
-      </c>
-      <c r="B16" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>50</v>
-      </c>
-      <c r="B17" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>48</v>
-      </c>
-      <c r="B18" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>47</v>
-      </c>
-      <c r="B19" t="s">
-        <v>46</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
